--- a/Data/Housing_data.xlsx
+++ b/Data/Housing_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_demo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353C7468-362C-4823-A547-FC731EED7D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A690DF-E90B-468F-87E4-F87AEA74C6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{AB3678B5-2446-4328-882A-A72900DC8DCC}"/>
   </bookViews>
   <sheets>
     <sheet name="introduction" sheetId="4" r:id="rId1"/>
     <sheet name="sale_counts" sheetId="1" r:id="rId2"/>
-    <sheet name="mean_sale_price" sheetId="2" r:id="rId3"/>
+    <sheet name="median_sale_price" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="225">
   <si>
     <t>Code</t>
   </si>
@@ -640,9 +640,6 @@
     <t>Wealden</t>
   </si>
   <si>
-    <t>:</t>
-  </si>
-  <si>
     <t>LA_Name</t>
   </si>
   <si>
@@ -650,9 +647,6 @@
   </si>
   <si>
     <t>Flats</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
   <si>
     <t>Source</t>
@@ -1685,82 +1679,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -1788,7 +1782,7 @@
   <dimension ref="A1:H491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="D1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1801,13 +1795,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
@@ -1819,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1914,10 +1908,10 @@
         <v>3887</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G5" s="10">
         <v>873</v>
@@ -14572,7 +14566,7 @@
   <dimension ref="A1:H491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -14585,13 +14579,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
@@ -14603,7 +14597,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -14805,7 +14799,7 @@
         <v>85000</v>
       </c>
       <c r="F9" s="18">
-        <v>53000</v>
+        <v>-53000</v>
       </c>
       <c r="G9" s="18">
         <v>28000</v>
@@ -15946,10 +15940,10 @@
         <v>188750</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G53" s="18">
         <v>223750</v>
@@ -16501,7 +16495,7 @@
         <v>23000</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -18156,7 +18150,7 @@
         <v>124000</v>
       </c>
       <c r="E138" s="18" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F138" s="18">
         <v>140000</v>
@@ -18390,13 +18384,13 @@
         <v>180000</v>
       </c>
       <c r="E147" s="18" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="G147" s="18" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="H147" s="19">
         <v>162500</v>
@@ -20834,13 +20828,13 @@
         <v>225000</v>
       </c>
       <c r="E241" s="18" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="F241" s="18" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="G241" s="18" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="H241" s="19">
         <v>175000</v>
@@ -23281,7 +23275,7 @@
         <v>425000</v>
       </c>
       <c r="F335" s="18" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="G335" s="18">
         <v>301250</v>
@@ -25725,10 +25719,10 @@
         <v>400000</v>
       </c>
       <c r="F429" s="18" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="G429" s="18" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="H429" s="19">
         <v>235000</v>

--- a/Data/Housing_data.xlsx
+++ b/Data/Housing_data.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_demo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A690DF-E90B-468F-87E4-F87AEA74C6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D22FD37-98BA-432F-B84E-B64B7E077664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{AB3678B5-2446-4328-882A-A72900DC8DCC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{AB3678B5-2446-4328-882A-A72900DC8DCC}"/>
   </bookViews>
   <sheets>
     <sheet name="introduction" sheetId="4" r:id="rId1"/>
     <sheet name="sale_counts" sheetId="1" r:id="rId2"/>
     <sheet name="median_sale_price" sheetId="2" r:id="rId3"/>
+    <sheet name="median_sale_price_regions" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">median_sale_price!$A$1:$H$491</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="245">
   <si>
     <t>Code</t>
   </si>
@@ -714,12 +718,72 @@
   <si>
     <t>These statistics were adapted from data from the Land Registry licensed under the Open Government Licence v.3.0</t>
   </si>
+  <si>
+    <t>E12000001</t>
+  </si>
+  <si>
+    <t>North East</t>
+  </si>
+  <si>
+    <t>E12000002</t>
+  </si>
+  <si>
+    <t>North West</t>
+  </si>
+  <si>
+    <t>E12000003</t>
+  </si>
+  <si>
+    <t>Yorkshire and The Humber</t>
+  </si>
+  <si>
+    <t>E12000004</t>
+  </si>
+  <si>
+    <t>East Midlands</t>
+  </si>
+  <si>
+    <t>E12000005</t>
+  </si>
+  <si>
+    <t>West Midlands</t>
+  </si>
+  <si>
+    <t>E12000006</t>
+  </si>
+  <si>
+    <t>East of England</t>
+  </si>
+  <si>
+    <t>E12000007</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>E12000008</t>
+  </si>
+  <si>
+    <t>South East</t>
+  </si>
+  <si>
+    <t>E12000009</t>
+  </si>
+  <si>
+    <t>South West</t>
+  </si>
+  <si>
+    <t>W92000004</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -874,8 +938,41 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1055,8 +1152,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1222,8 +1325,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1267,8 +1388,26 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1309,8 +1448,194 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="20" fillId="33" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="33" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="55">
     <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{9F0C2C05-6E57-4D0C-BC6E-731B1C24F8F5}"/>
     <cellStyle name="20% - Accent2 2" xfId="3" xr:uid="{9658AA89-140A-4760-9A9F-3FD2BD16CB05}"/>
     <cellStyle name="20% - Accent3 2" xfId="4" xr:uid="{F2F489A0-C9C7-457B-8606-E14DFDA1C5A0}"/>
@@ -1324,11 +1649,17 @@
     <cellStyle name="40% - Accent5 2" xfId="12" xr:uid="{8420E686-9F65-449B-8589-CCE16CDF45B0}"/>
     <cellStyle name="40% - Accent6 2" xfId="13" xr:uid="{9824A01B-D770-413A-8272-0E9B92908B8B}"/>
     <cellStyle name="60% - Accent1 2" xfId="14" xr:uid="{6F5F4018-D074-4AB3-AD78-A8E69150E110}"/>
+    <cellStyle name="60% - Accent1 2 2" xfId="43" xr:uid="{F0C412FB-1791-441F-87B4-3AC74751C7D9}"/>
     <cellStyle name="60% - Accent2 2" xfId="15" xr:uid="{0F6F08A8-8DA2-4177-A9CE-0090FEFC40C9}"/>
+    <cellStyle name="60% - Accent2 2 2" xfId="44" xr:uid="{1C0517D3-2FE0-48C2-9D83-0B96AC31ED84}"/>
     <cellStyle name="60% - Accent3 2" xfId="16" xr:uid="{C57E0EBB-29E1-435C-B564-E5FE41B64107}"/>
+    <cellStyle name="60% - Accent3 2 2" xfId="45" xr:uid="{970C5B51-16AD-4091-AF6F-8070D0A39DC3}"/>
     <cellStyle name="60% - Accent4 2" xfId="17" xr:uid="{9A62A458-9097-443F-9E59-C536B5991F92}"/>
+    <cellStyle name="60% - Accent4 2 2" xfId="46" xr:uid="{254E46E7-B220-4BA1-AB48-046A1D68C459}"/>
     <cellStyle name="60% - Accent5 2" xfId="18" xr:uid="{C65D9821-FB3D-4BBB-8CF6-BEB2CAB7F188}"/>
+    <cellStyle name="60% - Accent5 2 2" xfId="47" xr:uid="{6F3A7514-D0B8-40CB-ABB1-5D5A7AB44AA5}"/>
     <cellStyle name="60% - Accent6 2" xfId="19" xr:uid="{3BDC9606-650E-4DF0-9FCA-0B125167DB91}"/>
+    <cellStyle name="60% - Accent6 2 2" xfId="48" xr:uid="{B168B155-C104-47E4-9BDB-AC07048696E4}"/>
     <cellStyle name="Accent1 2" xfId="20" xr:uid="{451AF4CE-5FE6-4784-B663-3FD961C1A609}"/>
     <cellStyle name="Accent2 2" xfId="21" xr:uid="{A32724B2-1891-4E48-B3A0-0F3CA7278862}"/>
     <cellStyle name="Accent3 2" xfId="22" xr:uid="{088463A5-A690-4AB7-A5BE-9DFF58D449F1}"/>
@@ -1344,14 +1675,20 @@
     <cellStyle name="Heading 2 2" xfId="32" xr:uid="{81701F51-2933-4AA3-809C-AC7D6985C502}"/>
     <cellStyle name="Heading 3 2" xfId="33" xr:uid="{2CB6B3C3-56C7-4F89-A71C-3B9F527A8F5D}"/>
     <cellStyle name="Heading 4 2" xfId="34" xr:uid="{6B2C2FDB-E81D-4C65-90CF-6C48D0A87EEB}"/>
+    <cellStyle name="Hyperlink 2" xfId="49" xr:uid="{4F68FB8D-1ABE-4139-AFCE-09510FAFC3B5}"/>
+    <cellStyle name="Hyperlink 3" xfId="50" xr:uid="{B6306D6B-6DD1-4FA7-9426-A837EACAF204}"/>
     <cellStyle name="Input 2" xfId="35" xr:uid="{21BC351B-033D-424D-801E-FE93B919A0CD}"/>
     <cellStyle name="Linked Cell 2" xfId="36" xr:uid="{B0B2D35F-9E6D-4398-B535-2FCC96ED5BD9}"/>
     <cellStyle name="Neutral 2" xfId="37" xr:uid="{7D911119-0DFC-408D-999F-9ABA3D066B5A}"/>
+    <cellStyle name="Neutral 2 2" xfId="51" xr:uid="{9ECB23A7-C8D3-4BD8-B540-6BAF92D3D25E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{2C6BAF82-ACCA-4A3E-9C8A-7550B9D66FE7}"/>
+    <cellStyle name="Normal 2 2" xfId="53" xr:uid="{775F21E1-0582-4BA2-9D98-FF8343C3C3CB}"/>
+    <cellStyle name="Normal 2 3" xfId="52" xr:uid="{6F521BB1-DADA-45BF-A965-D2D7F19428C6}"/>
     <cellStyle name="Note 2" xfId="38" xr:uid="{B363307D-6F5C-46BC-B126-5E4ACBABBF71}"/>
     <cellStyle name="Output 2" xfId="39" xr:uid="{CD4E0080-2202-4F40-9AD9-188569A9F01D}"/>
     <cellStyle name="Title 2" xfId="40" xr:uid="{B528F4BF-279B-48D2-86C3-82B22E840F1B}"/>
+    <cellStyle name="Title 2 2" xfId="54" xr:uid="{A7981CDB-A15A-47AE-A645-1A0A3B3ECCD1}"/>
     <cellStyle name="Total 2" xfId="41" xr:uid="{07F12E30-F15D-4423-945B-1ADB170EA618}"/>
     <cellStyle name="Warning Text 2" xfId="42" xr:uid="{4FDC3890-76E5-4FAA-9625-7B739FBBE8D4}"/>
   </cellStyles>
@@ -14565,8 +14902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85B4453-11F1-496E-AA5E-A13E57016F5E}">
   <dimension ref="A1:H491"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -14600,29 +14937,29 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="22">
         <v>2000</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="23">
         <v>47000</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="24">
         <v>87995</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="24">
         <v>52500</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="24">
         <v>25000</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="25">
         <v>31475</v>
       </c>
     </row>
@@ -14633,7 +14970,7 @@
       <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="32">
         <v>2000</v>
       </c>
       <c r="D3" s="20">
@@ -14659,7 +14996,7 @@
       <c r="B4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="32">
         <v>2000</v>
       </c>
       <c r="D4" s="20">
@@ -14685,7 +15022,7 @@
       <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="32">
         <v>2000</v>
       </c>
       <c r="D5" s="20">
@@ -14711,7 +15048,7 @@
       <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="32">
         <v>2000</v>
       </c>
       <c r="D6" s="20">
@@ -14737,7 +15074,7 @@
       <c r="B7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="32">
         <v>2000</v>
       </c>
       <c r="D7" s="20">
@@ -14763,7 +15100,7 @@
       <c r="B8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="32">
         <v>2000</v>
       </c>
       <c r="D8" s="20">
@@ -14789,7 +15126,7 @@
       <c r="B9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="32">
         <v>2000</v>
       </c>
       <c r="D9" s="20">
@@ -14815,7 +15152,7 @@
       <c r="B10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="32">
         <v>2000</v>
       </c>
       <c r="D10" s="20">
@@ -14841,7 +15178,7 @@
       <c r="B11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="32">
         <v>2000</v>
       </c>
       <c r="D11" s="20">
@@ -14867,7 +15204,7 @@
       <c r="B12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="32">
         <v>2000</v>
       </c>
       <c r="D12" s="20">
@@ -14893,7 +15230,7 @@
       <c r="B13" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="32">
         <v>2000</v>
       </c>
       <c r="D13" s="20">
@@ -14919,7 +15256,7 @@
       <c r="B14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="32">
         <v>2000</v>
       </c>
       <c r="D14" s="20">
@@ -14945,7 +15282,7 @@
       <c r="B15" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="32">
         <v>2000</v>
       </c>
       <c r="D15" s="20">
@@ -14971,7 +15308,7 @@
       <c r="B16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="32">
         <v>2000</v>
       </c>
       <c r="D16" s="20">
@@ -14997,7 +15334,7 @@
       <c r="B17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="32">
         <v>2000</v>
       </c>
       <c r="D17" s="20">
@@ -15049,7 +15386,7 @@
       <c r="B19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="32">
         <v>2000</v>
       </c>
       <c r="D19" s="20">
@@ -15075,7 +15412,7 @@
       <c r="B20" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="32">
         <v>2000</v>
       </c>
       <c r="D20" s="20">
@@ -15101,7 +15438,7 @@
       <c r="B21" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="32">
         <v>2000</v>
       </c>
       <c r="D21" s="20">
@@ -15127,7 +15464,7 @@
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="32">
         <v>2000</v>
       </c>
       <c r="D22" s="20">
@@ -15153,7 +15490,7 @@
       <c r="B23" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="32">
         <v>2000</v>
       </c>
       <c r="D23" s="20">
@@ -15179,7 +15516,7 @@
       <c r="B24" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="32">
         <v>2000</v>
       </c>
       <c r="D24" s="20">
@@ -15205,7 +15542,7 @@
       <c r="B25" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="32">
         <v>2000</v>
       </c>
       <c r="D25" s="20">
@@ -15231,7 +15568,7 @@
       <c r="B26" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="32">
         <v>2000</v>
       </c>
       <c r="D26" s="20">
@@ -15257,7 +15594,7 @@
       <c r="B27" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="32">
         <v>2000</v>
       </c>
       <c r="D27" s="20">
@@ -15283,7 +15620,7 @@
       <c r="B28" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="32">
         <v>2000</v>
       </c>
       <c r="D28" s="20">
@@ -15335,7 +15672,7 @@
       <c r="B30" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="32">
         <v>2000</v>
       </c>
       <c r="D30" s="20">
@@ -15387,7 +15724,7 @@
       <c r="B32" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="32">
         <v>2000</v>
       </c>
       <c r="D32" s="20">
@@ -15413,7 +15750,7 @@
       <c r="B33" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="32">
         <v>2000</v>
       </c>
       <c r="D33" s="20">
@@ -15439,7 +15776,7 @@
       <c r="B34" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="32">
         <v>2000</v>
       </c>
       <c r="D34" s="20">
@@ -15465,7 +15802,7 @@
       <c r="B35" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="32">
         <v>2000</v>
       </c>
       <c r="D35" s="20">
@@ -15517,7 +15854,7 @@
       <c r="B37" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="32">
         <v>2000</v>
       </c>
       <c r="D37" s="20">
@@ -15543,7 +15880,7 @@
       <c r="B38" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="32">
         <v>2000</v>
       </c>
       <c r="D38" s="20">
@@ -15569,7 +15906,7 @@
       <c r="B39" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="32">
         <v>2000</v>
       </c>
       <c r="D39" s="20">
@@ -15595,7 +15932,7 @@
       <c r="B40" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="32">
         <v>2000</v>
       </c>
       <c r="D40" s="20">
@@ -15621,7 +15958,7 @@
       <c r="B41" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="32">
         <v>2000</v>
       </c>
       <c r="D41" s="20">
@@ -15647,7 +15984,7 @@
       <c r="B42" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="32">
         <v>2000</v>
       </c>
       <c r="D42" s="20">
@@ -15699,7 +16036,7 @@
       <c r="B44" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="32">
         <v>2000</v>
       </c>
       <c r="D44" s="20">
@@ -15725,7 +16062,7 @@
       <c r="B45" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="32">
         <v>2000</v>
       </c>
       <c r="D45" s="20">
@@ -15751,7 +16088,7 @@
       <c r="B46" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="32">
         <v>2000</v>
       </c>
       <c r="D46" s="20">
@@ -15777,7 +16114,7 @@
       <c r="B47" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="32">
         <v>2000</v>
       </c>
       <c r="D47" s="20">
@@ -15803,7 +16140,7 @@
       <c r="B48" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="32">
         <v>2000</v>
       </c>
       <c r="D48" s="20">
@@ -15829,7 +16166,7 @@
       <c r="B49" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="32">
         <v>2000</v>
       </c>
       <c r="D49" s="20">
@@ -15855,7 +16192,7 @@
       <c r="B50" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="32">
         <v>2000</v>
       </c>
       <c r="D50" s="20">
@@ -15881,7 +16218,7 @@
       <c r="B51" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="32">
         <v>2000</v>
       </c>
       <c r="D51" s="20">
@@ -15907,7 +16244,7 @@
       <c r="B52" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="32">
         <v>2000</v>
       </c>
       <c r="D52" s="20">
@@ -15933,7 +16270,7 @@
       <c r="B53" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="32">
         <v>2000</v>
       </c>
       <c r="D53" s="20">
@@ -15959,7 +16296,7 @@
       <c r="B54" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="32">
         <v>2000</v>
       </c>
       <c r="D54" s="20">
@@ -15985,7 +16322,7 @@
       <c r="B55" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="32">
         <v>2000</v>
       </c>
       <c r="D55" s="20">
@@ -16011,7 +16348,7 @@
       <c r="B56" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="32">
         <v>2000</v>
       </c>
       <c r="D56" s="20">
@@ -16037,7 +16374,7 @@
       <c r="B57" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="32">
         <v>2000</v>
       </c>
       <c r="D57" s="20">
@@ -16063,7 +16400,7 @@
       <c r="B58" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="32">
         <v>2000</v>
       </c>
       <c r="D58" s="20">
@@ -16089,7 +16426,7 @@
       <c r="B59" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="32">
         <v>2000</v>
       </c>
       <c r="D59" s="20">
@@ -16141,7 +16478,7 @@
       <c r="B61" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="32">
         <v>2000</v>
       </c>
       <c r="D61" s="20">
@@ -16167,7 +16504,7 @@
       <c r="B62" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="32">
         <v>2000</v>
       </c>
       <c r="D62" s="20">
@@ -16193,7 +16530,7 @@
       <c r="B63" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="32">
         <v>2000</v>
       </c>
       <c r="D63" s="20">
@@ -16219,7 +16556,7 @@
       <c r="B64" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="32">
         <v>2000</v>
       </c>
       <c r="D64" s="20">
@@ -16245,7 +16582,7 @@
       <c r="B65" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="32">
         <v>2000</v>
       </c>
       <c r="D65" s="20">
@@ -16271,7 +16608,7 @@
       <c r="B66" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="32">
         <v>2000</v>
       </c>
       <c r="D66" s="20">
@@ -16297,7 +16634,7 @@
       <c r="B67" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C67" s="21">
+      <c r="C67" s="32">
         <v>2000</v>
       </c>
       <c r="D67" s="20">
@@ -16323,7 +16660,7 @@
       <c r="B68" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="32">
         <v>2000</v>
       </c>
       <c r="D68" s="20">
@@ -16349,7 +16686,7 @@
       <c r="B69" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="21">
+      <c r="C69" s="32">
         <v>2000</v>
       </c>
       <c r="D69" s="20">
@@ -16375,7 +16712,7 @@
       <c r="B70" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="32">
         <v>2000</v>
       </c>
       <c r="D70" s="20">
@@ -16401,7 +16738,7 @@
       <c r="B71" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="32">
         <v>2000</v>
       </c>
       <c r="D71" s="20">
@@ -16427,7 +16764,7 @@
       <c r="B72" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="32">
         <v>2000</v>
       </c>
       <c r="D72" s="20">
@@ -16453,7 +16790,7 @@
       <c r="B73" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="21">
+      <c r="C73" s="32">
         <v>2000</v>
       </c>
       <c r="D73" s="20">
@@ -16479,7 +16816,7 @@
       <c r="B74" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="32">
         <v>2000</v>
       </c>
       <c r="D74" s="20">
@@ -16505,7 +16842,7 @@
       <c r="B75" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C75" s="32">
         <v>2000</v>
       </c>
       <c r="D75" s="20">
@@ -16531,7 +16868,7 @@
       <c r="B76" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="32">
         <v>2000</v>
       </c>
       <c r="D76" s="20">
@@ -16557,7 +16894,7 @@
       <c r="B77" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C77" s="32">
         <v>2000</v>
       </c>
       <c r="D77" s="20">
@@ -16583,7 +16920,7 @@
       <c r="B78" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C78" s="21">
+      <c r="C78" s="32">
         <v>2000</v>
       </c>
       <c r="D78" s="20">
@@ -16609,7 +16946,7 @@
       <c r="B79" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C79" s="21">
+      <c r="C79" s="32">
         <v>2000</v>
       </c>
       <c r="D79" s="20">
@@ -16635,7 +16972,7 @@
       <c r="B80" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C80" s="21">
+      <c r="C80" s="32">
         <v>2000</v>
       </c>
       <c r="D80" s="20">
@@ -16661,7 +16998,7 @@
       <c r="B81" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C81" s="21">
+      <c r="C81" s="32">
         <v>2000</v>
       </c>
       <c r="D81" s="20">
@@ -16687,7 +17024,7 @@
       <c r="B82" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C82" s="21">
+      <c r="C82" s="32">
         <v>2000</v>
       </c>
       <c r="D82" s="20">
@@ -16739,7 +17076,7 @@
       <c r="B84" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C84" s="21">
+      <c r="C84" s="32">
         <v>2000</v>
       </c>
       <c r="D84" s="20">
@@ -16765,7 +17102,7 @@
       <c r="B85" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C85" s="32">
         <v>2000</v>
       </c>
       <c r="D85" s="20">
@@ -16791,7 +17128,7 @@
       <c r="B86" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="C86" s="21">
+      <c r="C86" s="32">
         <v>2000</v>
       </c>
       <c r="D86" s="20">
@@ -16817,7 +17154,7 @@
       <c r="B87" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="C87" s="21">
+      <c r="C87" s="32">
         <v>2000</v>
       </c>
       <c r="D87" s="20">
@@ -16843,7 +17180,7 @@
       <c r="B88" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C88" s="21">
+      <c r="C88" s="32">
         <v>2000</v>
       </c>
       <c r="D88" s="20">
@@ -16869,7 +17206,7 @@
       <c r="B89" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C89" s="21">
+      <c r="C89" s="32">
         <v>2000</v>
       </c>
       <c r="D89" s="20">
@@ -16895,7 +17232,7 @@
       <c r="B90" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C90" s="21">
+      <c r="C90" s="32">
         <v>2000</v>
       </c>
       <c r="D90" s="20">
@@ -16921,7 +17258,7 @@
       <c r="B91" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="C91" s="21">
+      <c r="C91" s="32">
         <v>2000</v>
       </c>
       <c r="D91" s="20">
@@ -16947,7 +17284,7 @@
       <c r="B92" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C92" s="21">
+      <c r="C92" s="32">
         <v>2000</v>
       </c>
       <c r="D92" s="20">
@@ -16999,7 +17336,7 @@
       <c r="B94" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="C94" s="21">
+      <c r="C94" s="32">
         <v>2000</v>
       </c>
       <c r="D94" s="20">
@@ -17025,7 +17362,7 @@
       <c r="B95" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C95" s="21">
+      <c r="C95" s="32">
         <v>2000</v>
       </c>
       <c r="D95" s="20">
@@ -17051,7 +17388,7 @@
       <c r="B96" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C96" s="21">
+      <c r="C96" s="32">
         <v>2000</v>
       </c>
       <c r="D96" s="20">
@@ -17077,7 +17414,7 @@
       <c r="B97" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C97" s="21">
+      <c r="C97" s="32">
         <v>2000</v>
       </c>
       <c r="D97" s="20">
@@ -17103,7 +17440,7 @@
       <c r="B98" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="C98" s="21">
+      <c r="C98" s="32">
         <v>2000</v>
       </c>
       <c r="D98" s="20">
@@ -17129,7 +17466,7 @@
       <c r="B99" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C99" s="21">
+      <c r="C99" s="32">
         <v>2000</v>
       </c>
       <c r="D99" s="20">
@@ -17148,29 +17485,29 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="21" t="s">
+    <row r="100" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B100" s="21" t="s">
+      <c r="B100" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="21">
+      <c r="C100" s="22">
         <v>2001</v>
       </c>
-      <c r="D100" s="20">
+      <c r="D100" s="23">
         <v>56000</v>
       </c>
-      <c r="E100" s="18">
+      <c r="E100" s="24">
         <v>98500</v>
       </c>
-      <c r="F100" s="18">
+      <c r="F100" s="24">
         <v>57000</v>
       </c>
-      <c r="G100" s="18">
+      <c r="G100" s="24">
         <v>33000</v>
       </c>
-      <c r="H100" s="19">
+      <c r="H100" s="25">
         <v>65950</v>
       </c>
     </row>
@@ -17181,7 +17518,7 @@
       <c r="B101" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="16">
+      <c r="C101" s="30">
         <v>2001</v>
       </c>
       <c r="D101" s="20">
@@ -17207,7 +17544,7 @@
       <c r="B102" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C102" s="21">
+      <c r="C102" s="32">
         <v>2001</v>
       </c>
       <c r="D102" s="20">
@@ -17233,7 +17570,7 @@
       <c r="B103" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="16">
+      <c r="C103" s="30">
         <v>2001</v>
       </c>
       <c r="D103" s="20">
@@ -17259,7 +17596,7 @@
       <c r="B104" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C104" s="21">
+      <c r="C104" s="32">
         <v>2001</v>
       </c>
       <c r="D104" s="20">
@@ -17285,7 +17622,7 @@
       <c r="B105" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C105" s="16">
+      <c r="C105" s="30">
         <v>2001</v>
       </c>
       <c r="D105" s="20">
@@ -17311,7 +17648,7 @@
       <c r="B106" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C106" s="21">
+      <c r="C106" s="32">
         <v>2001</v>
       </c>
       <c r="D106" s="20">
@@ -17337,7 +17674,7 @@
       <c r="B107" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C107" s="16">
+      <c r="C107" s="30">
         <v>2001</v>
       </c>
       <c r="D107" s="20">
@@ -17363,7 +17700,7 @@
       <c r="B108" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C108" s="21">
+      <c r="C108" s="32">
         <v>2001</v>
       </c>
       <c r="D108" s="20">
@@ -17389,7 +17726,7 @@
       <c r="B109" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="16">
+      <c r="C109" s="30">
         <v>2001</v>
       </c>
       <c r="D109" s="20">
@@ -17415,7 +17752,7 @@
       <c r="B110" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C110" s="21">
+      <c r="C110" s="32">
         <v>2001</v>
       </c>
       <c r="D110" s="20">
@@ -17441,7 +17778,7 @@
       <c r="B111" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C111" s="16">
+      <c r="C111" s="30">
         <v>2001</v>
       </c>
       <c r="D111" s="20">
@@ -17467,7 +17804,7 @@
       <c r="B112" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C112" s="21">
+      <c r="C112" s="32">
         <v>2001</v>
       </c>
       <c r="D112" s="20">
@@ -17493,7 +17830,7 @@
       <c r="B113" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C113" s="16">
+      <c r="C113" s="30">
         <v>2001</v>
       </c>
       <c r="D113" s="20">
@@ -17519,7 +17856,7 @@
       <c r="B114" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="21">
+      <c r="C114" s="32">
         <v>2001</v>
       </c>
       <c r="D114" s="20">
@@ -17545,7 +17882,7 @@
       <c r="B115" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C115" s="16">
+      <c r="C115" s="30">
         <v>2001</v>
       </c>
       <c r="D115" s="20">
@@ -17571,7 +17908,7 @@
       <c r="B116" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C116" s="21">
+      <c r="C116" s="32">
         <v>2001</v>
       </c>
       <c r="D116" s="20">
@@ -17597,7 +17934,7 @@
       <c r="B117" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C117" s="16">
+      <c r="C117" s="30">
         <v>2001</v>
       </c>
       <c r="D117" s="20">
@@ -17623,7 +17960,7 @@
       <c r="B118" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C118" s="21">
+      <c r="C118" s="32">
         <v>2001</v>
       </c>
       <c r="D118" s="20">
@@ -17649,7 +17986,7 @@
       <c r="B119" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C119" s="16">
+      <c r="C119" s="30">
         <v>2001</v>
       </c>
       <c r="D119" s="20">
@@ -17675,7 +18012,7 @@
       <c r="B120" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C120" s="21">
+      <c r="C120" s="32">
         <v>2001</v>
       </c>
       <c r="D120" s="20">
@@ -17701,7 +18038,7 @@
       <c r="B121" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C121" s="16">
+      <c r="C121" s="30">
         <v>2001</v>
       </c>
       <c r="D121" s="20">
@@ -17727,7 +18064,7 @@
       <c r="B122" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C122" s="21">
+      <c r="C122" s="32">
         <v>2001</v>
       </c>
       <c r="D122" s="20">
@@ -17779,7 +18116,7 @@
       <c r="B124" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C124" s="21">
+      <c r="C124" s="32">
         <v>2001</v>
       </c>
       <c r="D124" s="20">
@@ -17805,7 +18142,7 @@
       <c r="B125" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C125" s="16">
+      <c r="C125" s="30">
         <v>2001</v>
       </c>
       <c r="D125" s="20">
@@ -17857,7 +18194,7 @@
       <c r="B127" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C127" s="16">
+      <c r="C127" s="30">
         <v>2001</v>
       </c>
       <c r="D127" s="20">
@@ -17883,7 +18220,7 @@
       <c r="B128" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C128" s="21">
+      <c r="C128" s="32">
         <v>2001</v>
       </c>
       <c r="D128" s="20">
@@ -17909,7 +18246,7 @@
       <c r="B129" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C129" s="16">
+      <c r="C129" s="30">
         <v>2001</v>
       </c>
       <c r="D129" s="20">
@@ -17935,7 +18272,7 @@
       <c r="B130" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C130" s="21">
+      <c r="C130" s="32">
         <v>2001</v>
       </c>
       <c r="D130" s="20">
@@ -17961,7 +18298,7 @@
       <c r="B131" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C131" s="16">
+      <c r="C131" s="30">
         <v>2001</v>
       </c>
       <c r="D131" s="20">
@@ -18013,7 +18350,7 @@
       <c r="B133" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C133" s="16">
+      <c r="C133" s="30">
         <v>2001</v>
       </c>
       <c r="D133" s="20">
@@ -18039,7 +18376,7 @@
       <c r="B134" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C134" s="21">
+      <c r="C134" s="32">
         <v>2001</v>
       </c>
       <c r="D134" s="20">
@@ -18065,7 +18402,7 @@
       <c r="B135" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C135" s="16">
+      <c r="C135" s="30">
         <v>2001</v>
       </c>
       <c r="D135" s="20">
@@ -18091,7 +18428,7 @@
       <c r="B136" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C136" s="21">
+      <c r="C136" s="32">
         <v>2001</v>
       </c>
       <c r="D136" s="20">
@@ -18143,7 +18480,7 @@
       <c r="B138" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C138" s="21">
+      <c r="C138" s="32">
         <v>2001</v>
       </c>
       <c r="D138" s="20">
@@ -18169,7 +18506,7 @@
       <c r="B139" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C139" s="16">
+      <c r="C139" s="30">
         <v>2001</v>
       </c>
       <c r="D139" s="20">
@@ -18195,7 +18532,7 @@
       <c r="B140" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C140" s="21">
+      <c r="C140" s="32">
         <v>2001</v>
       </c>
       <c r="D140" s="20">
@@ -18221,7 +18558,7 @@
       <c r="B141" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C141" s="16">
+      <c r="C141" s="30">
         <v>2001</v>
       </c>
       <c r="D141" s="20">
@@ -18247,7 +18584,7 @@
       <c r="B142" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C142" s="21">
+      <c r="C142" s="32">
         <v>2001</v>
       </c>
       <c r="D142" s="20">
@@ -18273,7 +18610,7 @@
       <c r="B143" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C143" s="16">
+      <c r="C143" s="30">
         <v>2001</v>
       </c>
       <c r="D143" s="20">
@@ -18299,7 +18636,7 @@
       <c r="B144" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C144" s="21">
+      <c r="C144" s="32">
         <v>2001</v>
       </c>
       <c r="D144" s="20">
@@ -18325,7 +18662,7 @@
       <c r="B145" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C145" s="16">
+      <c r="C145" s="30">
         <v>2001</v>
       </c>
       <c r="D145" s="20">
@@ -18351,7 +18688,7 @@
       <c r="B146" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C146" s="21">
+      <c r="C146" s="32">
         <v>2001</v>
       </c>
       <c r="D146" s="20">
@@ -18377,7 +18714,7 @@
       <c r="B147" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C147" s="16">
+      <c r="C147" s="30">
         <v>2001</v>
       </c>
       <c r="D147" s="20">
@@ -18403,7 +18740,7 @@
       <c r="B148" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C148" s="21">
+      <c r="C148" s="32">
         <v>2001</v>
       </c>
       <c r="D148" s="20">
@@ -18429,7 +18766,7 @@
       <c r="B149" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C149" s="16">
+      <c r="C149" s="30">
         <v>2001</v>
       </c>
       <c r="D149" s="20">
@@ -18455,7 +18792,7 @@
       <c r="B150" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C150" s="21">
+      <c r="C150" s="32">
         <v>2001</v>
       </c>
       <c r="D150" s="20">
@@ -18481,7 +18818,7 @@
       <c r="B151" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C151" s="16">
+      <c r="C151" s="30">
         <v>2001</v>
       </c>
       <c r="D151" s="20">
@@ -18507,7 +18844,7 @@
       <c r="B152" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C152" s="21">
+      <c r="C152" s="32">
         <v>2001</v>
       </c>
       <c r="D152" s="20">
@@ -18533,7 +18870,7 @@
       <c r="B153" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C153" s="16">
+      <c r="C153" s="30">
         <v>2001</v>
       </c>
       <c r="D153" s="20">
@@ -18559,7 +18896,7 @@
       <c r="B154" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C154" s="21">
+      <c r="C154" s="32">
         <v>2001</v>
       </c>
       <c r="D154" s="20">
@@ -18585,7 +18922,7 @@
       <c r="B155" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C155" s="16">
+      <c r="C155" s="30">
         <v>2001</v>
       </c>
       <c r="D155" s="20">
@@ -18611,7 +18948,7 @@
       <c r="B156" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C156" s="21">
+      <c r="C156" s="32">
         <v>2001</v>
       </c>
       <c r="D156" s="20">
@@ -18637,7 +18974,7 @@
       <c r="B157" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C157" s="16">
+      <c r="C157" s="30">
         <v>2001</v>
       </c>
       <c r="D157" s="20">
@@ -18663,7 +19000,7 @@
       <c r="B158" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C158" s="21">
+      <c r="C158" s="32">
         <v>2001</v>
       </c>
       <c r="D158" s="20">
@@ -18689,7 +19026,7 @@
       <c r="B159" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C159" s="16">
+      <c r="C159" s="30">
         <v>2001</v>
       </c>
       <c r="D159" s="20">
@@ -18715,7 +19052,7 @@
       <c r="B160" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C160" s="21">
+      <c r="C160" s="32">
         <v>2001</v>
       </c>
       <c r="D160" s="20">
@@ -18741,7 +19078,7 @@
       <c r="B161" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C161" s="16">
+      <c r="C161" s="30">
         <v>2001</v>
       </c>
       <c r="D161" s="20">
@@ -18767,7 +19104,7 @@
       <c r="B162" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C162" s="21">
+      <c r="C162" s="32">
         <v>2001</v>
       </c>
       <c r="D162" s="20">
@@ -18793,7 +19130,7 @@
       <c r="B163" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C163" s="16">
+      <c r="C163" s="30">
         <v>2001</v>
       </c>
       <c r="D163" s="20">
@@ -18819,7 +19156,7 @@
       <c r="B164" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C164" s="21">
+      <c r="C164" s="32">
         <v>2001</v>
       </c>
       <c r="D164" s="20">
@@ -18845,7 +19182,7 @@
       <c r="B165" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C165" s="16">
+      <c r="C165" s="30">
         <v>2001</v>
       </c>
       <c r="D165" s="20">
@@ -18871,7 +19208,7 @@
       <c r="B166" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C166" s="21">
+      <c r="C166" s="32">
         <v>2001</v>
       </c>
       <c r="D166" s="20">
@@ -18897,7 +19234,7 @@
       <c r="B167" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C167" s="16">
+      <c r="C167" s="30">
         <v>2001</v>
       </c>
       <c r="D167" s="20">
@@ -18923,7 +19260,7 @@
       <c r="B168" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C168" s="21">
+      <c r="C168" s="32">
         <v>2001</v>
       </c>
       <c r="D168" s="20">
@@ -18949,7 +19286,7 @@
       <c r="B169" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C169" s="16">
+      <c r="C169" s="30">
         <v>2001</v>
       </c>
       <c r="D169" s="20">
@@ -18975,7 +19312,7 @@
       <c r="B170" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C170" s="21">
+      <c r="C170" s="32">
         <v>2001</v>
       </c>
       <c r="D170" s="20">
@@ -19001,7 +19338,7 @@
       <c r="B171" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C171" s="16">
+      <c r="C171" s="30">
         <v>2001</v>
       </c>
       <c r="D171" s="20">
@@ -19027,7 +19364,7 @@
       <c r="B172" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C172" s="21">
+      <c r="C172" s="32">
         <v>2001</v>
       </c>
       <c r="D172" s="20">
@@ -19053,7 +19390,7 @@
       <c r="B173" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C173" s="16">
+      <c r="C173" s="30">
         <v>2001</v>
       </c>
       <c r="D173" s="20">
@@ -19105,7 +19442,7 @@
       <c r="B175" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C175" s="16">
+      <c r="C175" s="30">
         <v>2001</v>
       </c>
       <c r="D175" s="20">
@@ -19131,7 +19468,7 @@
       <c r="B176" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C176" s="21">
+      <c r="C176" s="32">
         <v>2001</v>
       </c>
       <c r="D176" s="20">
@@ -19157,7 +19494,7 @@
       <c r="B177" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C177" s="16">
+      <c r="C177" s="30">
         <v>2001</v>
       </c>
       <c r="D177" s="20">
@@ -19183,7 +19520,7 @@
       <c r="B178" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C178" s="21">
+      <c r="C178" s="32">
         <v>2001</v>
       </c>
       <c r="D178" s="20">
@@ -19209,7 +19546,7 @@
       <c r="B179" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C179" s="16">
+      <c r="C179" s="30">
         <v>2001</v>
       </c>
       <c r="D179" s="20">
@@ -19235,7 +19572,7 @@
       <c r="B180" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C180" s="21">
+      <c r="C180" s="32">
         <v>2001</v>
       </c>
       <c r="D180" s="20">
@@ -19313,7 +19650,7 @@
       <c r="B183" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C183" s="16">
+      <c r="C183" s="30">
         <v>2001</v>
       </c>
       <c r="D183" s="20">
@@ -19365,7 +19702,7 @@
       <c r="B185" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="C185" s="16">
+      <c r="C185" s="30">
         <v>2001</v>
       </c>
       <c r="D185" s="20">
@@ -19391,7 +19728,7 @@
       <c r="B186" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C186" s="21">
+      <c r="C186" s="32">
         <v>2001</v>
       </c>
       <c r="D186" s="20">
@@ -19417,7 +19754,7 @@
       <c r="B187" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C187" s="16">
+      <c r="C187" s="30">
         <v>2001</v>
       </c>
       <c r="D187" s="20">
@@ -19443,7 +19780,7 @@
       <c r="B188" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C188" s="21">
+      <c r="C188" s="32">
         <v>2001</v>
       </c>
       <c r="D188" s="20">
@@ -19469,7 +19806,7 @@
       <c r="B189" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="C189" s="16">
+      <c r="C189" s="30">
         <v>2001</v>
       </c>
       <c r="D189" s="20">
@@ -19495,7 +19832,7 @@
       <c r="B190" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C190" s="21">
+      <c r="C190" s="32">
         <v>2001</v>
       </c>
       <c r="D190" s="20">
@@ -19521,7 +19858,7 @@
       <c r="B191" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="C191" s="16">
+      <c r="C191" s="30">
         <v>2001</v>
       </c>
       <c r="D191" s="20">
@@ -19547,7 +19884,7 @@
       <c r="B192" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="C192" s="21">
+      <c r="C192" s="32">
         <v>2001</v>
       </c>
       <c r="D192" s="20">
@@ -19573,7 +19910,7 @@
       <c r="B193" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C193" s="16">
+      <c r="C193" s="30">
         <v>2001</v>
       </c>
       <c r="D193" s="20">
@@ -19599,7 +19936,7 @@
       <c r="B194" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C194" s="21">
+      <c r="C194" s="32">
         <v>2001</v>
       </c>
       <c r="D194" s="20">
@@ -19625,7 +19962,7 @@
       <c r="B195" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C195" s="16">
+      <c r="C195" s="30">
         <v>2001</v>
       </c>
       <c r="D195" s="20">
@@ -19651,7 +19988,7 @@
       <c r="B196" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="C196" s="21">
+      <c r="C196" s="32">
         <v>2001</v>
       </c>
       <c r="D196" s="20">
@@ -19677,7 +20014,7 @@
       <c r="B197" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C197" s="16">
+      <c r="C197" s="30">
         <v>2001</v>
       </c>
       <c r="D197" s="20">
@@ -19781,7 +20118,7 @@
       <c r="B201" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C201" s="7">
+      <c r="C201" s="31">
         <v>2002</v>
       </c>
       <c r="D201" s="20">
@@ -19989,7 +20326,7 @@
       <c r="B209" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C209" s="7">
+      <c r="C209" s="31">
         <v>2002</v>
       </c>
       <c r="D209" s="20">
@@ -20093,7 +20430,7 @@
       <c r="B213" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C213" s="7">
+      <c r="C213" s="31">
         <v>2002</v>
       </c>
       <c r="D213" s="20">
@@ -20197,7 +20534,7 @@
       <c r="B217" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C217" s="7">
+      <c r="C217" s="31">
         <v>2002</v>
       </c>
       <c r="D217" s="20">
@@ -20249,7 +20586,7 @@
       <c r="B219" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C219" s="7">
+      <c r="C219" s="31">
         <v>2002</v>
       </c>
       <c r="D219" s="20">
@@ -20457,7 +20794,7 @@
       <c r="B227" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C227" s="7">
+      <c r="C227" s="31">
         <v>2002</v>
       </c>
       <c r="D227" s="20">
@@ -20561,7 +20898,7 @@
       <c r="B231" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C231" s="7">
+      <c r="C231" s="31">
         <v>2002</v>
       </c>
       <c r="D231" s="20">
@@ -20665,7 +21002,7 @@
       <c r="B235" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C235" s="7">
+      <c r="C235" s="31">
         <v>2002</v>
       </c>
       <c r="D235" s="20">
@@ -20717,7 +21054,7 @@
       <c r="B237" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C237" s="7">
+      <c r="C237" s="31">
         <v>2002</v>
       </c>
       <c r="D237" s="20">
@@ -20769,7 +21106,7 @@
       <c r="B239" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C239" s="7">
+      <c r="C239" s="31">
         <v>2002</v>
       </c>
       <c r="D239" s="20">
@@ -20873,7 +21210,7 @@
       <c r="B243" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C243" s="7">
+      <c r="C243" s="31">
         <v>2002</v>
       </c>
       <c r="D243" s="20">
@@ -20925,7 +21262,7 @@
       <c r="B245" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C245" s="7">
+      <c r="C245" s="31">
         <v>2002</v>
       </c>
       <c r="D245" s="20">
@@ -20977,7 +21314,7 @@
       <c r="B247" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C247" s="7">
+      <c r="C247" s="31">
         <v>2002</v>
       </c>
       <c r="D247" s="20">
@@ -21029,7 +21366,7 @@
       <c r="B249" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C249" s="7">
+      <c r="C249" s="31">
         <v>2002</v>
       </c>
       <c r="D249" s="20">
@@ -21133,7 +21470,7 @@
       <c r="B253" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C253" s="7">
+      <c r="C253" s="31">
         <v>2002</v>
       </c>
       <c r="D253" s="20">
@@ -21185,7 +21522,7 @@
       <c r="B255" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C255" s="7">
+      <c r="C255" s="31">
         <v>2002</v>
       </c>
       <c r="D255" s="20">
@@ -21341,7 +21678,7 @@
       <c r="B261" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C261" s="7">
+      <c r="C261" s="31">
         <v>2002</v>
       </c>
       <c r="D261" s="20">
@@ -21497,7 +21834,7 @@
       <c r="B267" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C267" s="7">
+      <c r="C267" s="31">
         <v>2002</v>
       </c>
       <c r="D267" s="20">
@@ -21549,7 +21886,7 @@
       <c r="B269" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C269" s="7">
+      <c r="C269" s="31">
         <v>2002</v>
       </c>
       <c r="D269" s="20">
@@ -21601,7 +21938,7 @@
       <c r="B271" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C271" s="7">
+      <c r="C271" s="31">
         <v>2002</v>
       </c>
       <c r="D271" s="20">
@@ -21705,7 +22042,7 @@
       <c r="B275" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C275" s="7">
+      <c r="C275" s="31">
         <v>2002</v>
       </c>
       <c r="D275" s="20">
@@ -21757,7 +22094,7 @@
       <c r="B277" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C277" s="7">
+      <c r="C277" s="31">
         <v>2002</v>
       </c>
       <c r="D277" s="20">
@@ -21861,7 +22198,7 @@
       <c r="B281" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C281" s="7">
+      <c r="C281" s="31">
         <v>2002</v>
       </c>
       <c r="D281" s="20">
@@ -21913,7 +22250,7 @@
       <c r="B283" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="C283" s="7">
+      <c r="C283" s="31">
         <v>2002</v>
       </c>
       <c r="D283" s="20">
@@ -21965,7 +22302,7 @@
       <c r="B285" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C285" s="7">
+      <c r="C285" s="31">
         <v>2002</v>
       </c>
       <c r="D285" s="20">
@@ -22121,7 +22458,7 @@
       <c r="B291" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C291" s="7">
+      <c r="C291" s="31">
         <v>2002</v>
       </c>
       <c r="D291" s="20">
@@ -22173,7 +22510,7 @@
       <c r="B293" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C293" s="7">
+      <c r="C293" s="31">
         <v>2002</v>
       </c>
       <c r="D293" s="20">
@@ -22225,7 +22562,7 @@
       <c r="B295" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C295" s="7">
+      <c r="C295" s="31">
         <v>2002</v>
       </c>
       <c r="D295" s="20">
@@ -22277,7 +22614,7 @@
       <c r="B297" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C297" s="7">
+      <c r="C297" s="31">
         <v>2003</v>
       </c>
       <c r="D297" s="20">
@@ -22407,7 +22744,7 @@
       <c r="B302" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C302" s="7">
+      <c r="C302" s="31">
         <v>2003</v>
       </c>
       <c r="D302" s="20">
@@ -22433,7 +22770,7 @@
       <c r="B303" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C303" s="7">
+      <c r="C303" s="31">
         <v>2003</v>
       </c>
       <c r="D303" s="20">
@@ -22459,7 +22796,7 @@
       <c r="B304" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C304" s="7">
+      <c r="C304" s="31">
         <v>2003</v>
       </c>
       <c r="D304" s="20">
@@ -22485,7 +22822,7 @@
       <c r="B305" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C305" s="7">
+      <c r="C305" s="31">
         <v>2003</v>
       </c>
       <c r="D305" s="20">
@@ -22511,7 +22848,7 @@
       <c r="B306" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C306" s="7">
+      <c r="C306" s="31">
         <v>2003</v>
       </c>
       <c r="D306" s="20">
@@ -22537,7 +22874,7 @@
       <c r="B307" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C307" s="7">
+      <c r="C307" s="31">
         <v>2003</v>
       </c>
       <c r="D307" s="20">
@@ -22563,7 +22900,7 @@
       <c r="B308" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C308" s="7">
+      <c r="C308" s="31">
         <v>2003</v>
       </c>
       <c r="D308" s="20">
@@ -22641,7 +22978,7 @@
       <c r="B311" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C311" s="7">
+      <c r="C311" s="31">
         <v>2003</v>
       </c>
       <c r="D311" s="20">
@@ -22667,7 +23004,7 @@
       <c r="B312" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C312" s="7">
+      <c r="C312" s="31">
         <v>2003</v>
       </c>
       <c r="D312" s="20">
@@ -22693,7 +23030,7 @@
       <c r="B313" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C313" s="7">
+      <c r="C313" s="31">
         <v>2003</v>
       </c>
       <c r="D313" s="20">
@@ -22719,7 +23056,7 @@
       <c r="B314" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C314" s="7">
+      <c r="C314" s="31">
         <v>2003</v>
       </c>
       <c r="D314" s="20">
@@ -22745,7 +23082,7 @@
       <c r="B315" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C315" s="7">
+      <c r="C315" s="31">
         <v>2003</v>
       </c>
       <c r="D315" s="20">
@@ -22797,7 +23134,7 @@
       <c r="B317" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C317" s="7">
+      <c r="C317" s="31">
         <v>2003</v>
       </c>
       <c r="D317" s="20">
@@ -22823,7 +23160,7 @@
       <c r="B318" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C318" s="7">
+      <c r="C318" s="31">
         <v>2003</v>
       </c>
       <c r="D318" s="20">
@@ -22849,7 +23186,7 @@
       <c r="B319" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C319" s="7">
+      <c r="C319" s="31">
         <v>2003</v>
       </c>
       <c r="D319" s="20">
@@ -22875,7 +23212,7 @@
       <c r="B320" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C320" s="7">
+      <c r="C320" s="31">
         <v>2003</v>
       </c>
       <c r="D320" s="20">
@@ -22901,7 +23238,7 @@
       <c r="B321" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C321" s="7">
+      <c r="C321" s="31">
         <v>2003</v>
       </c>
       <c r="D321" s="20">
@@ -22927,7 +23264,7 @@
       <c r="B322" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C322" s="7">
+      <c r="C322" s="31">
         <v>2003</v>
       </c>
       <c r="D322" s="20">
@@ -23057,7 +23394,7 @@
       <c r="B327" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C327" s="7">
+      <c r="C327" s="31">
         <v>2003</v>
       </c>
       <c r="D327" s="20">
@@ -23083,7 +23420,7 @@
       <c r="B328" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C328" s="7">
+      <c r="C328" s="31">
         <v>2003</v>
       </c>
       <c r="D328" s="20">
@@ -23109,7 +23446,7 @@
       <c r="B329" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C329" s="7">
+      <c r="C329" s="31">
         <v>2003</v>
       </c>
       <c r="D329" s="20">
@@ -23135,7 +23472,7 @@
       <c r="B330" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C330" s="7">
+      <c r="C330" s="31">
         <v>2003</v>
       </c>
       <c r="D330" s="20">
@@ -23161,7 +23498,7 @@
       <c r="B331" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C331" s="7">
+      <c r="C331" s="31">
         <v>2003</v>
       </c>
       <c r="D331" s="20">
@@ -23187,7 +23524,7 @@
       <c r="B332" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C332" s="7">
+      <c r="C332" s="31">
         <v>2003</v>
       </c>
       <c r="D332" s="20">
@@ -23213,7 +23550,7 @@
       <c r="B333" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C333" s="7">
+      <c r="C333" s="31">
         <v>2003</v>
       </c>
       <c r="D333" s="20">
@@ -23239,7 +23576,7 @@
       <c r="B334" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C334" s="7">
+      <c r="C334" s="31">
         <v>2003</v>
       </c>
       <c r="D334" s="20">
@@ -23265,7 +23602,7 @@
       <c r="B335" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C335" s="7">
+      <c r="C335" s="31">
         <v>2003</v>
       </c>
       <c r="D335" s="20">
@@ -23291,7 +23628,7 @@
       <c r="B336" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C336" s="7">
+      <c r="C336" s="31">
         <v>2003</v>
       </c>
       <c r="D336" s="20">
@@ -23317,7 +23654,7 @@
       <c r="B337" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C337" s="7">
+      <c r="C337" s="31">
         <v>2003</v>
       </c>
       <c r="D337" s="20">
@@ -23343,7 +23680,7 @@
       <c r="B338" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C338" s="7">
+      <c r="C338" s="31">
         <v>2003</v>
       </c>
       <c r="D338" s="20">
@@ -23395,7 +23732,7 @@
       <c r="B340" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C340" s="7">
+      <c r="C340" s="31">
         <v>2003</v>
       </c>
       <c r="D340" s="20">
@@ -23447,7 +23784,7 @@
       <c r="B342" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C342" s="7">
+      <c r="C342" s="31">
         <v>2003</v>
       </c>
       <c r="D342" s="20">
@@ -23499,7 +23836,7 @@
       <c r="B344" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C344" s="7">
+      <c r="C344" s="31">
         <v>2003</v>
       </c>
       <c r="D344" s="20">
@@ -23525,7 +23862,7 @@
       <c r="B345" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C345" s="7">
+      <c r="C345" s="31">
         <v>2003</v>
       </c>
       <c r="D345" s="20">
@@ -23551,7 +23888,7 @@
       <c r="B346" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C346" s="7">
+      <c r="C346" s="31">
         <v>2003</v>
       </c>
       <c r="D346" s="20">
@@ -23603,7 +23940,7 @@
       <c r="B348" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C348" s="7">
+      <c r="C348" s="31">
         <v>2003</v>
       </c>
       <c r="D348" s="20">
@@ -23629,7 +23966,7 @@
       <c r="B349" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C349" s="7">
+      <c r="C349" s="31">
         <v>2003</v>
       </c>
       <c r="D349" s="20">
@@ -23655,7 +23992,7 @@
       <c r="B350" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C350" s="7">
+      <c r="C350" s="31">
         <v>2003</v>
       </c>
       <c r="D350" s="20">
@@ -23681,7 +24018,7 @@
       <c r="B351" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C351" s="7">
+      <c r="C351" s="31">
         <v>2003</v>
       </c>
       <c r="D351" s="20">
@@ -23707,7 +24044,7 @@
       <c r="B352" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C352" s="7">
+      <c r="C352" s="31">
         <v>2003</v>
       </c>
       <c r="D352" s="20">
@@ -23759,7 +24096,7 @@
       <c r="B354" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C354" s="7">
+      <c r="C354" s="31">
         <v>2003</v>
       </c>
       <c r="D354" s="20">
@@ -23785,7 +24122,7 @@
       <c r="B355" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C355" s="7">
+      <c r="C355" s="31">
         <v>2003</v>
       </c>
       <c r="D355" s="20">
@@ -23863,7 +24200,7 @@
       <c r="B358" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C358" s="7">
+      <c r="C358" s="31">
         <v>2003</v>
       </c>
       <c r="D358" s="20">
@@ -23915,7 +24252,7 @@
       <c r="B360" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C360" s="7">
+      <c r="C360" s="31">
         <v>2003</v>
       </c>
       <c r="D360" s="20">
@@ -23993,7 +24330,7 @@
       <c r="B363" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C363" s="7">
+      <c r="C363" s="31">
         <v>2003</v>
       </c>
       <c r="D363" s="20">
@@ -24019,7 +24356,7 @@
       <c r="B364" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C364" s="7">
+      <c r="C364" s="31">
         <v>2003</v>
       </c>
       <c r="D364" s="20">
@@ -24045,7 +24382,7 @@
       <c r="B365" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C365" s="7">
+      <c r="C365" s="31">
         <v>2003</v>
       </c>
       <c r="D365" s="20">
@@ -24071,7 +24408,7 @@
       <c r="B366" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C366" s="7">
+      <c r="C366" s="31">
         <v>2003</v>
       </c>
       <c r="D366" s="20">
@@ -24097,7 +24434,7 @@
       <c r="B367" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C367" s="7">
+      <c r="C367" s="31">
         <v>2003</v>
       </c>
       <c r="D367" s="20">
@@ -24123,7 +24460,7 @@
       <c r="B368" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C368" s="7">
+      <c r="C368" s="31">
         <v>2003</v>
       </c>
       <c r="D368" s="20">
@@ -24149,7 +24486,7 @@
       <c r="B369" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C369" s="7">
+      <c r="C369" s="31">
         <v>2003</v>
       </c>
       <c r="D369" s="20">
@@ -24175,7 +24512,7 @@
       <c r="B370" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="C370" s="7">
+      <c r="C370" s="31">
         <v>2003</v>
       </c>
       <c r="D370" s="20">
@@ -24201,7 +24538,7 @@
       <c r="B371" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C371" s="7">
+      <c r="C371" s="31">
         <v>2003</v>
       </c>
       <c r="D371" s="20">
@@ -24227,7 +24564,7 @@
       <c r="B372" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C372" s="7">
+      <c r="C372" s="31">
         <v>2003</v>
       </c>
       <c r="D372" s="20">
@@ -24357,7 +24694,7 @@
       <c r="B377" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C377" s="7">
+      <c r="C377" s="31">
         <v>2003</v>
       </c>
       <c r="D377" s="20">
@@ -24409,7 +24746,7 @@
       <c r="B379" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C379" s="7">
+      <c r="C379" s="31">
         <v>2003</v>
       </c>
       <c r="D379" s="20">
@@ -24435,7 +24772,7 @@
       <c r="B380" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="C380" s="7">
+      <c r="C380" s="31">
         <v>2003</v>
       </c>
       <c r="D380" s="20">
@@ -24461,7 +24798,7 @@
       <c r="B381" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="C381" s="7">
+      <c r="C381" s="31">
         <v>2003</v>
       </c>
       <c r="D381" s="20">
@@ -24487,7 +24824,7 @@
       <c r="B382" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C382" s="7">
+      <c r="C382" s="31">
         <v>2003</v>
       </c>
       <c r="D382" s="20">
@@ -24513,7 +24850,7 @@
       <c r="B383" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C383" s="7">
+      <c r="C383" s="31">
         <v>2003</v>
       </c>
       <c r="D383" s="20">
@@ -24591,7 +24928,7 @@
       <c r="B386" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C386" s="7">
+      <c r="C386" s="31">
         <v>2003</v>
       </c>
       <c r="D386" s="20">
@@ -24695,7 +25032,7 @@
       <c r="B390" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C390" s="7">
+      <c r="C390" s="31">
         <v>2003</v>
       </c>
       <c r="D390" s="20">
@@ -24721,7 +25058,7 @@
       <c r="B391" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C391" s="7">
+      <c r="C391" s="31">
         <v>2003</v>
       </c>
       <c r="D391" s="20">
@@ -24747,7 +25084,7 @@
       <c r="B392" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="C392" s="7">
+      <c r="C392" s="31">
         <v>2003</v>
       </c>
       <c r="D392" s="20">
@@ -24773,7 +25110,7 @@
       <c r="B393" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C393" s="7">
+      <c r="C393" s="31">
         <v>2003</v>
       </c>
       <c r="D393" s="20">
@@ -24799,7 +25136,7 @@
       <c r="B394" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C394" s="7">
+      <c r="C394" s="31">
         <v>2004</v>
       </c>
       <c r="D394" s="20">
@@ -24825,7 +25162,7 @@
       <c r="B395" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C395" s="7">
+      <c r="C395" s="31">
         <v>2004</v>
       </c>
       <c r="D395" s="20">
@@ -24851,7 +25188,7 @@
       <c r="B396" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C396" s="7">
+      <c r="C396" s="31">
         <v>2004</v>
       </c>
       <c r="D396" s="20">
@@ -24981,7 +25318,7 @@
       <c r="B401" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C401" s="7">
+      <c r="C401" s="31">
         <v>2004</v>
       </c>
       <c r="D401" s="20">
@@ -25007,7 +25344,7 @@
       <c r="B402" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C402" s="7">
+      <c r="C402" s="31">
         <v>2004</v>
       </c>
       <c r="D402" s="20">
@@ -25033,7 +25370,7 @@
       <c r="B403" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C403" s="7">
+      <c r="C403" s="31">
         <v>2004</v>
       </c>
       <c r="D403" s="20">
@@ -25085,7 +25422,7 @@
       <c r="B405" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C405" s="7">
+      <c r="C405" s="31">
         <v>2004</v>
       </c>
       <c r="D405" s="20">
@@ -25111,7 +25448,7 @@
       <c r="B406" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C406" s="7">
+      <c r="C406" s="31">
         <v>2004</v>
       </c>
       <c r="D406" s="20">
@@ -25163,7 +25500,7 @@
       <c r="B408" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C408" s="7">
+      <c r="C408" s="31">
         <v>2004</v>
       </c>
       <c r="D408" s="20">
@@ -25189,7 +25526,7 @@
       <c r="B409" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C409" s="7">
+      <c r="C409" s="31">
         <v>2004</v>
       </c>
       <c r="D409" s="20">
@@ -25267,7 +25604,7 @@
       <c r="B412" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C412" s="7">
+      <c r="C412" s="31">
         <v>2004</v>
       </c>
       <c r="D412" s="20">
@@ -25293,7 +25630,7 @@
       <c r="B413" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C413" s="7">
+      <c r="C413" s="31">
         <v>2004</v>
       </c>
       <c r="D413" s="20">
@@ -25319,7 +25656,7 @@
       <c r="B414" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C414" s="7">
+      <c r="C414" s="31">
         <v>2004</v>
       </c>
       <c r="D414" s="20">
@@ -25397,7 +25734,7 @@
       <c r="B417" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C417" s="7">
+      <c r="C417" s="31">
         <v>2004</v>
       </c>
       <c r="D417" s="20">
@@ -25423,7 +25760,7 @@
       <c r="B418" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C418" s="7">
+      <c r="C418" s="31">
         <v>2004</v>
       </c>
       <c r="D418" s="20">
@@ -25449,7 +25786,7 @@
       <c r="B419" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C419" s="7">
+      <c r="C419" s="31">
         <v>2004</v>
       </c>
       <c r="D419" s="20">
@@ -25475,7 +25812,7 @@
       <c r="B420" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C420" s="7">
+      <c r="C420" s="31">
         <v>2004</v>
       </c>
       <c r="D420" s="20">
@@ -25501,7 +25838,7 @@
       <c r="B421" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C421" s="7">
+      <c r="C421" s="31">
         <v>2004</v>
       </c>
       <c r="D421" s="20">
@@ -25527,7 +25864,7 @@
       <c r="B422" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C422" s="7">
+      <c r="C422" s="31">
         <v>2004</v>
       </c>
       <c r="D422" s="20">
@@ -25553,7 +25890,7 @@
       <c r="B423" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C423" s="7">
+      <c r="C423" s="31">
         <v>2004</v>
       </c>
       <c r="D423" s="20">
@@ -25579,7 +25916,7 @@
       <c r="B424" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C424" s="7">
+      <c r="C424" s="31">
         <v>2004</v>
       </c>
       <c r="D424" s="20">
@@ -25605,7 +25942,7 @@
       <c r="B425" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C425" s="7">
+      <c r="C425" s="31">
         <v>2004</v>
       </c>
       <c r="D425" s="20">
@@ -25631,7 +25968,7 @@
       <c r="B426" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C426" s="7">
+      <c r="C426" s="31">
         <v>2004</v>
       </c>
       <c r="D426" s="20">
@@ -25651,13 +25988,13 @@
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A427" s="21" t="s">
+      <c r="A427" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B427" s="21" t="s">
+      <c r="B427" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C427" s="7">
+      <c r="C427" s="31">
         <v>2004</v>
       </c>
       <c r="D427" s="20">
@@ -25683,7 +26020,7 @@
       <c r="B428" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C428" s="7">
+      <c r="C428" s="31">
         <v>2004</v>
       </c>
       <c r="D428" s="20">
@@ -25735,7 +26072,7 @@
       <c r="B430" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C430" s="7">
+      <c r="C430" s="31">
         <v>2004</v>
       </c>
       <c r="D430" s="20">
@@ -25761,7 +26098,7 @@
       <c r="B431" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C431" s="7">
+      <c r="C431" s="31">
         <v>2004</v>
       </c>
       <c r="D431" s="20">
@@ -25787,7 +26124,7 @@
       <c r="B432" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C432" s="7">
+      <c r="C432" s="31">
         <v>2004</v>
       </c>
       <c r="D432" s="20">
@@ -25813,7 +26150,7 @@
       <c r="B433" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C433" s="7">
+      <c r="C433" s="31">
         <v>2004</v>
       </c>
       <c r="D433" s="20">
@@ -25839,7 +26176,7 @@
       <c r="B434" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C434" s="7">
+      <c r="C434" s="31">
         <v>2004</v>
       </c>
       <c r="D434" s="20">
@@ -25865,7 +26202,7 @@
       <c r="B435" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C435" s="7">
+      <c r="C435" s="31">
         <v>2004</v>
       </c>
       <c r="D435" s="20">
@@ -25891,7 +26228,7 @@
       <c r="B436" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C436" s="7">
+      <c r="C436" s="31">
         <v>2004</v>
       </c>
       <c r="D436" s="20">
@@ -25917,7 +26254,7 @@
       <c r="B437" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C437" s="7">
+      <c r="C437" s="31">
         <v>2004</v>
       </c>
       <c r="D437" s="20">
@@ -25969,7 +26306,7 @@
       <c r="B439" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C439" s="7">
+      <c r="C439" s="31">
         <v>2004</v>
       </c>
       <c r="D439" s="20">
@@ -25995,7 +26332,7 @@
       <c r="B440" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C440" s="7">
+      <c r="C440" s="31">
         <v>2004</v>
       </c>
       <c r="D440" s="20">
@@ -26021,7 +26358,7 @@
       <c r="B441" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C441" s="7">
+      <c r="C441" s="31">
         <v>2004</v>
       </c>
       <c r="D441" s="20">
@@ -26047,7 +26384,7 @@
       <c r="B442" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C442" s="7">
+      <c r="C442" s="31">
         <v>2004</v>
       </c>
       <c r="D442" s="20">
@@ -26073,7 +26410,7 @@
       <c r="B443" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C443" s="7">
+      <c r="C443" s="31">
         <v>2004</v>
       </c>
       <c r="D443" s="20">
@@ -26099,7 +26436,7 @@
       <c r="B444" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C444" s="7">
+      <c r="C444" s="31">
         <v>2004</v>
       </c>
       <c r="D444" s="20">
@@ -26151,7 +26488,7 @@
       <c r="B446" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C446" s="7">
+      <c r="C446" s="31">
         <v>2004</v>
       </c>
       <c r="D446" s="20">
@@ -26177,7 +26514,7 @@
       <c r="B447" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C447" s="7">
+      <c r="C447" s="31">
         <v>2004</v>
       </c>
       <c r="D447" s="20">
@@ -26203,7 +26540,7 @@
       <c r="B448" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C448" s="7">
+      <c r="C448" s="31">
         <v>2004</v>
       </c>
       <c r="D448" s="20">
@@ -26255,7 +26592,7 @@
       <c r="B450" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C450" s="7">
+      <c r="C450" s="31">
         <v>2004</v>
       </c>
       <c r="D450" s="20">
@@ -26281,7 +26618,7 @@
       <c r="B451" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C451" s="7">
+      <c r="C451" s="31">
         <v>2004</v>
       </c>
       <c r="D451" s="20">
@@ -26359,7 +26696,7 @@
       <c r="B454" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C454" s="7">
+      <c r="C454" s="31">
         <v>2004</v>
       </c>
       <c r="D454" s="20">
@@ -26385,7 +26722,7 @@
       <c r="B455" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C455" s="7">
+      <c r="C455" s="31">
         <v>2004</v>
       </c>
       <c r="D455" s="20">
@@ -26463,7 +26800,7 @@
       <c r="B458" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C458" s="7">
+      <c r="C458" s="31">
         <v>2004</v>
       </c>
       <c r="D458" s="20">
@@ -26489,7 +26826,7 @@
       <c r="B459" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C459" s="7">
+      <c r="C459" s="31">
         <v>2004</v>
       </c>
       <c r="D459" s="20">
@@ -26515,7 +26852,7 @@
       <c r="B460" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C460" s="7">
+      <c r="C460" s="31">
         <v>2004</v>
       </c>
       <c r="D460" s="20">
@@ -26541,7 +26878,7 @@
       <c r="B461" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C461" s="7">
+      <c r="C461" s="31">
         <v>2004</v>
       </c>
       <c r="D461" s="20">
@@ -26567,7 +26904,7 @@
       <c r="B462" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C462" s="7">
+      <c r="C462" s="31">
         <v>2004</v>
       </c>
       <c r="D462" s="20">
@@ -26593,7 +26930,7 @@
       <c r="B463" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C463" s="7">
+      <c r="C463" s="31">
         <v>2004</v>
       </c>
       <c r="D463" s="20">
@@ -26613,13 +26950,13 @@
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A464" s="21" t="s">
+      <c r="A464" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="B464" s="21" t="s">
+      <c r="B464" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="C464" s="7">
+      <c r="C464" s="31">
         <v>2004</v>
       </c>
       <c r="D464" s="20">
@@ -26645,7 +26982,7 @@
       <c r="B465" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C465" s="7">
+      <c r="C465" s="31">
         <v>2004</v>
       </c>
       <c r="D465" s="20">
@@ -26671,7 +27008,7 @@
       <c r="B466" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C466" s="7">
+      <c r="C466" s="31">
         <v>2004</v>
       </c>
       <c r="D466" s="20">
@@ -26697,7 +27034,7 @@
       <c r="B467" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C467" s="7">
+      <c r="C467" s="31">
         <v>2004</v>
       </c>
       <c r="D467" s="20">
@@ -26723,7 +27060,7 @@
       <c r="B468" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="C468" s="7">
+      <c r="C468" s="31">
         <v>2004</v>
       </c>
       <c r="D468" s="20">
@@ -26749,7 +27086,7 @@
       <c r="B469" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C469" s="7">
+      <c r="C469" s="31">
         <v>2004</v>
       </c>
       <c r="D469" s="20">
@@ -26775,7 +27112,7 @@
       <c r="B470" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C470" s="7">
+      <c r="C470" s="31">
         <v>2004</v>
       </c>
       <c r="D470" s="20">
@@ -26827,7 +27164,7 @@
       <c r="B472" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C472" s="7">
+      <c r="C472" s="31">
         <v>2004</v>
       </c>
       <c r="D472" s="20">
@@ -26853,7 +27190,7 @@
       <c r="B473" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C473" s="7">
+      <c r="C473" s="31">
         <v>2004</v>
       </c>
       <c r="D473" s="20">
@@ -26879,7 +27216,7 @@
       <c r="B474" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C474" s="7">
+      <c r="C474" s="31">
         <v>2004</v>
       </c>
       <c r="D474" s="20">
@@ -26905,7 +27242,7 @@
       <c r="B475" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C475" s="7">
+      <c r="C475" s="31">
         <v>2004</v>
       </c>
       <c r="D475" s="20">
@@ -26931,7 +27268,7 @@
       <c r="B476" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C476" s="7">
+      <c r="C476" s="31">
         <v>2004</v>
       </c>
       <c r="D476" s="20">
@@ -26957,7 +27294,7 @@
       <c r="B477" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C477" s="7">
+      <c r="C477" s="31">
         <v>2004</v>
       </c>
       <c r="D477" s="20">
@@ -26983,7 +27320,7 @@
       <c r="B478" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="C478" s="7">
+      <c r="C478" s="31">
         <v>2004</v>
       </c>
       <c r="D478" s="20">
@@ -27035,7 +27372,7 @@
       <c r="B480" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C480" s="7">
+      <c r="C480" s="31">
         <v>2004</v>
       </c>
       <c r="D480" s="20">
@@ -27087,7 +27424,7 @@
       <c r="B482" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C482" s="7">
+      <c r="C482" s="31">
         <v>2004</v>
       </c>
       <c r="D482" s="20">
@@ -27113,7 +27450,7 @@
       <c r="B483" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="C483" s="7">
+      <c r="C483" s="31">
         <v>2004</v>
       </c>
       <c r="D483" s="20">
@@ -27139,7 +27476,7 @@
       <c r="B484" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C484" s="7">
+      <c r="C484" s="31">
         <v>2004</v>
       </c>
       <c r="D484" s="20">
@@ -27165,7 +27502,7 @@
       <c r="B485" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="C485" s="7">
+      <c r="C485" s="31">
         <v>2004</v>
       </c>
       <c r="D485" s="20">
@@ -27191,7 +27528,7 @@
       <c r="B486" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="C486" s="7">
+      <c r="C486" s="31">
         <v>2004</v>
       </c>
       <c r="D486" s="20">
@@ -27217,7 +27554,7 @@
       <c r="B487" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C487" s="7">
+      <c r="C487" s="31">
         <v>2004</v>
       </c>
       <c r="D487" s="20">
@@ -27243,7 +27580,7 @@
       <c r="B488" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C488" s="7">
+      <c r="C488" s="31">
         <v>2004</v>
       </c>
       <c r="D488" s="20">
@@ -27269,7 +27606,7 @@
       <c r="B489" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C489" s="7">
+      <c r="C489" s="31">
         <v>2004</v>
       </c>
       <c r="D489" s="20">
@@ -27295,7 +27632,7 @@
       <c r="B490" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="C490" s="7">
+      <c r="C490" s="31">
         <v>2004</v>
       </c>
       <c r="D490" s="20">
@@ -27321,7 +27658,7 @@
       <c r="B491" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C491" s="7">
+      <c r="C491" s="31">
         <v>2004</v>
       </c>
       <c r="D491" s="20">
@@ -27338,6 +27675,1350 @@
       </c>
       <c r="H491" s="19">
         <v>69950</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A095E8-09B6-4732-8565-763B56E913EC}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="24.3828125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="28">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="39">
+        <v>52000</v>
+      </c>
+      <c r="E2" s="40">
+        <v>92500</v>
+      </c>
+      <c r="F2" s="42">
+        <v>54000</v>
+      </c>
+      <c r="G2" s="44">
+        <v>36000</v>
+      </c>
+      <c r="H2" s="49">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="33">
+        <v>56500</v>
+      </c>
+      <c r="E3" s="40">
+        <v>109000</v>
+      </c>
+      <c r="F3" s="42">
+        <v>59500</v>
+      </c>
+      <c r="G3" s="44">
+        <v>36050</v>
+      </c>
+      <c r="H3" s="49">
+        <v>53975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="28">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="33">
+        <v>56000</v>
+      </c>
+      <c r="E4" s="40">
+        <v>95000</v>
+      </c>
+      <c r="F4" s="42">
+        <v>54500</v>
+      </c>
+      <c r="G4" s="44">
+        <v>39000</v>
+      </c>
+      <c r="H4" s="49">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="33">
+        <v>61500</v>
+      </c>
+      <c r="E5" s="40">
+        <v>97000</v>
+      </c>
+      <c r="F5" s="42">
+        <v>55500</v>
+      </c>
+      <c r="G5" s="44">
+        <v>42950</v>
+      </c>
+      <c r="H5" s="49">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="28">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="33">
+        <v>67000</v>
+      </c>
+      <c r="E6" s="40">
+        <v>124000</v>
+      </c>
+      <c r="F6" s="42">
+        <v>65000</v>
+      </c>
+      <c r="G6" s="44">
+        <v>50000</v>
+      </c>
+      <c r="H6" s="49">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="33">
+        <v>86500</v>
+      </c>
+      <c r="E7" s="40">
+        <v>140000</v>
+      </c>
+      <c r="F7" s="42">
+        <v>85325</v>
+      </c>
+      <c r="G7" s="44">
+        <v>72000</v>
+      </c>
+      <c r="H7" s="49">
+        <v>59950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="28">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="33">
+        <v>138000</v>
+      </c>
+      <c r="E8" s="40">
+        <v>295000</v>
+      </c>
+      <c r="F8" s="42">
+        <v>165000</v>
+      </c>
+      <c r="G8" s="44">
+        <v>135000</v>
+      </c>
+      <c r="H8" s="49">
+        <v>120800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="33">
+        <v>112000</v>
+      </c>
+      <c r="E9" s="40">
+        <v>193000</v>
+      </c>
+      <c r="F9" s="42">
+        <v>117751.5</v>
+      </c>
+      <c r="G9" s="44">
+        <v>89950</v>
+      </c>
+      <c r="H9" s="49">
+        <v>72500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="28">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="33">
+        <v>85000</v>
+      </c>
+      <c r="E10" s="40">
+        <v>137000</v>
+      </c>
+      <c r="F10" s="42">
+        <v>83100</v>
+      </c>
+      <c r="G10" s="44">
+        <v>68500</v>
+      </c>
+      <c r="H10" s="49">
+        <v>58950</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11">
+        <v>2000</v>
+      </c>
+      <c r="D11" s="34">
+        <v>56500</v>
+      </c>
+      <c r="E11" s="41">
+        <v>89500</v>
+      </c>
+      <c r="F11" s="43">
+        <v>54000</v>
+      </c>
+      <c r="G11" s="45">
+        <v>40000</v>
+      </c>
+      <c r="H11" s="50">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12">
+        <v>2001</v>
+      </c>
+      <c r="D12" s="51">
+        <v>55000</v>
+      </c>
+      <c r="E12" s="53">
+        <v>99950</v>
+      </c>
+      <c r="F12" s="55">
+        <v>57500</v>
+      </c>
+      <c r="G12" s="57">
+        <v>37500</v>
+      </c>
+      <c r="H12" s="62">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13">
+        <v>2001</v>
+      </c>
+      <c r="D13" s="51">
+        <v>60000</v>
+      </c>
+      <c r="E13" s="53">
+        <v>119995</v>
+      </c>
+      <c r="F13" s="55">
+        <v>65000</v>
+      </c>
+      <c r="G13" s="57">
+        <v>38500</v>
+      </c>
+      <c r="H13" s="62">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14">
+        <v>2001</v>
+      </c>
+      <c r="D14" s="51">
+        <v>59950</v>
+      </c>
+      <c r="E14" s="53">
+        <v>105000</v>
+      </c>
+      <c r="F14" s="55">
+        <v>58950</v>
+      </c>
+      <c r="G14" s="57">
+        <v>40000</v>
+      </c>
+      <c r="H14" s="62">
+        <v>59950</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15">
+        <v>2001</v>
+      </c>
+      <c r="D15" s="51">
+        <v>70000</v>
+      </c>
+      <c r="E15" s="53">
+        <v>112500</v>
+      </c>
+      <c r="F15" s="55">
+        <v>62000</v>
+      </c>
+      <c r="G15" s="57">
+        <v>48000</v>
+      </c>
+      <c r="H15" s="62">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16">
+        <v>2001</v>
+      </c>
+      <c r="D16" s="51">
+        <v>76000</v>
+      </c>
+      <c r="E16" s="53">
+        <v>138000</v>
+      </c>
+      <c r="F16" s="55">
+        <v>73000</v>
+      </c>
+      <c r="G16" s="57">
+        <v>56000</v>
+      </c>
+      <c r="H16" s="62">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17">
+        <v>2001</v>
+      </c>
+      <c r="D17" s="51">
+        <v>99995</v>
+      </c>
+      <c r="E17" s="53">
+        <v>155000</v>
+      </c>
+      <c r="F17" s="55">
+        <v>99995</v>
+      </c>
+      <c r="G17" s="57">
+        <v>82995</v>
+      </c>
+      <c r="H17" s="62">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18">
+        <v>2001</v>
+      </c>
+      <c r="D18" s="51">
+        <v>155000</v>
+      </c>
+      <c r="E18" s="53">
+        <v>310000</v>
+      </c>
+      <c r="F18" s="55">
+        <v>182000</v>
+      </c>
+      <c r="G18" s="57">
+        <v>150000</v>
+      </c>
+      <c r="H18" s="62">
+        <v>136495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19">
+        <v>2001</v>
+      </c>
+      <c r="D19" s="51">
+        <v>126000</v>
+      </c>
+      <c r="E19" s="53">
+        <v>216500</v>
+      </c>
+      <c r="F19" s="55">
+        <v>130000</v>
+      </c>
+      <c r="G19" s="57">
+        <v>102500</v>
+      </c>
+      <c r="H19" s="62">
+        <v>84500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20">
+        <v>2001</v>
+      </c>
+      <c r="D20" s="51">
+        <v>96500</v>
+      </c>
+      <c r="E20" s="53">
+        <v>153000</v>
+      </c>
+      <c r="F20" s="55">
+        <v>94000</v>
+      </c>
+      <c r="G20" s="57">
+        <v>78000</v>
+      </c>
+      <c r="H20" s="62">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21">
+        <v>2001</v>
+      </c>
+      <c r="D21" s="52">
+        <v>60000</v>
+      </c>
+      <c r="E21" s="54">
+        <v>97950</v>
+      </c>
+      <c r="F21" s="56">
+        <v>58000</v>
+      </c>
+      <c r="G21" s="58">
+        <v>43500</v>
+      </c>
+      <c r="H21" s="63">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22">
+        <v>2002</v>
+      </c>
+      <c r="D22" s="64">
+        <v>60000</v>
+      </c>
+      <c r="E22" s="66">
+        <v>121950</v>
+      </c>
+      <c r="F22" s="68">
+        <v>66000</v>
+      </c>
+      <c r="G22" s="70">
+        <v>41950</v>
+      </c>
+      <c r="H22" s="75">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23">
+        <v>2002</v>
+      </c>
+      <c r="D23" s="64">
+        <v>70000</v>
+      </c>
+      <c r="E23" s="66">
+        <v>140000</v>
+      </c>
+      <c r="F23" s="68">
+        <v>76950</v>
+      </c>
+      <c r="G23" s="70">
+        <v>43000</v>
+      </c>
+      <c r="H23" s="75">
+        <v>78950</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24">
+        <v>2002</v>
+      </c>
+      <c r="D24" s="64">
+        <v>70000</v>
+      </c>
+      <c r="E24" s="66">
+        <v>129000</v>
+      </c>
+      <c r="F24" s="68">
+        <v>69950</v>
+      </c>
+      <c r="G24" s="70">
+        <v>46000</v>
+      </c>
+      <c r="H24" s="75">
+        <v>75500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25">
+        <v>2002</v>
+      </c>
+      <c r="D25" s="64">
+        <v>85000</v>
+      </c>
+      <c r="E25" s="66">
+        <v>135000</v>
+      </c>
+      <c r="F25" s="68">
+        <v>77000</v>
+      </c>
+      <c r="G25" s="70">
+        <v>59995</v>
+      </c>
+      <c r="H25" s="75">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26">
+        <v>2002</v>
+      </c>
+      <c r="D26" s="64">
+        <v>89950</v>
+      </c>
+      <c r="E26" s="66">
+        <v>162500</v>
+      </c>
+      <c r="F26" s="68">
+        <v>86500</v>
+      </c>
+      <c r="G26" s="70">
+        <v>67500</v>
+      </c>
+      <c r="H26" s="75">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27">
+        <v>2002</v>
+      </c>
+      <c r="D27" s="64">
+        <v>125000</v>
+      </c>
+      <c r="E27" s="66">
+        <v>185000</v>
+      </c>
+      <c r="F27" s="68">
+        <v>125000</v>
+      </c>
+      <c r="G27" s="70">
+        <v>104000</v>
+      </c>
+      <c r="H27" s="75">
+        <v>85950</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28">
+        <v>2002</v>
+      </c>
+      <c r="D28" s="64">
+        <v>180457</v>
+      </c>
+      <c r="E28" s="66">
+        <v>352000</v>
+      </c>
+      <c r="F28" s="68">
+        <v>217000</v>
+      </c>
+      <c r="G28" s="70">
+        <v>180000</v>
+      </c>
+      <c r="H28" s="75">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29">
+        <v>2002</v>
+      </c>
+      <c r="D29" s="64">
+        <v>148000</v>
+      </c>
+      <c r="E29" s="66">
+        <v>248000</v>
+      </c>
+      <c r="F29" s="68">
+        <v>153500</v>
+      </c>
+      <c r="G29" s="70">
+        <v>125000</v>
+      </c>
+      <c r="H29" s="75">
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30">
+        <v>2002</v>
+      </c>
+      <c r="D30" s="64">
+        <v>123000</v>
+      </c>
+      <c r="E30" s="66">
+        <v>185000</v>
+      </c>
+      <c r="F30" s="68">
+        <v>119000</v>
+      </c>
+      <c r="G30" s="70">
+        <v>97000</v>
+      </c>
+      <c r="H30" s="75">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31">
+        <v>2002</v>
+      </c>
+      <c r="D31" s="65">
+        <v>71000</v>
+      </c>
+      <c r="E31" s="67">
+        <v>119950</v>
+      </c>
+      <c r="F31" s="69">
+        <v>67307.5</v>
+      </c>
+      <c r="G31" s="71">
+        <v>49950</v>
+      </c>
+      <c r="H31" s="76">
+        <v>69950</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32">
+        <v>2003</v>
+      </c>
+      <c r="D32" s="88">
+        <v>77950</v>
+      </c>
+      <c r="E32" s="83">
+        <v>155000</v>
+      </c>
+      <c r="F32" s="81">
+        <v>85000</v>
+      </c>
+      <c r="G32" s="79">
+        <v>53000</v>
+      </c>
+      <c r="H32" s="77">
+        <v>63500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="72" t="s">
+        <v>227</v>
+      </c>
+      <c r="B33" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33">
+        <v>2003</v>
+      </c>
+      <c r="D33" s="88">
+        <v>85000</v>
+      </c>
+      <c r="E33" s="83">
+        <v>170950</v>
+      </c>
+      <c r="F33" s="81">
+        <v>94950</v>
+      </c>
+      <c r="G33" s="79">
+        <v>55000</v>
+      </c>
+      <c r="H33" s="77">
+        <v>93100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="72" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34" s="72" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34">
+        <v>2003</v>
+      </c>
+      <c r="D34" s="88">
+        <v>87950</v>
+      </c>
+      <c r="E34" s="83">
+        <v>161726</v>
+      </c>
+      <c r="F34" s="81">
+        <v>89500</v>
+      </c>
+      <c r="G34" s="79">
+        <v>59950</v>
+      </c>
+      <c r="H34" s="77">
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" s="72" t="s">
+        <v>232</v>
+      </c>
+      <c r="C35">
+        <v>2003</v>
+      </c>
+      <c r="D35" s="88">
+        <v>107000</v>
+      </c>
+      <c r="E35" s="83">
+        <v>167000</v>
+      </c>
+      <c r="F35" s="81">
+        <v>97000</v>
+      </c>
+      <c r="G35" s="79">
+        <v>78000</v>
+      </c>
+      <c r="H35" s="77">
+        <v>87000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="B36" s="72" t="s">
+        <v>234</v>
+      </c>
+      <c r="C36">
+        <v>2003</v>
+      </c>
+      <c r="D36" s="88">
+        <v>110000</v>
+      </c>
+      <c r="E36" s="83">
+        <v>192450</v>
+      </c>
+      <c r="F36" s="81">
+        <v>108000</v>
+      </c>
+      <c r="G36" s="79">
+        <v>83500</v>
+      </c>
+      <c r="H36" s="77">
+        <v>88500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37">
+        <v>2003</v>
+      </c>
+      <c r="D37" s="88">
+        <v>145500</v>
+      </c>
+      <c r="E37" s="83">
+        <v>215000</v>
+      </c>
+      <c r="F37" s="81">
+        <v>148000</v>
+      </c>
+      <c r="G37" s="79">
+        <v>126000</v>
+      </c>
+      <c r="H37" s="77">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="B38" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38">
+        <v>2003</v>
+      </c>
+      <c r="D38" s="88">
+        <v>200000</v>
+      </c>
+      <c r="E38" s="83">
+        <v>390000</v>
+      </c>
+      <c r="F38" s="81">
+        <v>245000</v>
+      </c>
+      <c r="G38" s="79">
+        <v>204525</v>
+      </c>
+      <c r="H38" s="77">
+        <v>173000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="B39" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39">
+        <v>2003</v>
+      </c>
+      <c r="D39" s="88">
+        <v>169950</v>
+      </c>
+      <c r="E39" s="83">
+        <v>279950</v>
+      </c>
+      <c r="F39" s="81">
+        <v>177500</v>
+      </c>
+      <c r="G39" s="79">
+        <v>144000</v>
+      </c>
+      <c r="H39" s="77">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="73" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="73" t="s">
+        <v>242</v>
+      </c>
+      <c r="C40">
+        <v>2003</v>
+      </c>
+      <c r="D40" s="88">
+        <v>145000</v>
+      </c>
+      <c r="E40" s="83">
+        <v>225000</v>
+      </c>
+      <c r="F40" s="81">
+        <v>141000</v>
+      </c>
+      <c r="G40" s="79">
+        <v>120000</v>
+      </c>
+      <c r="H40" s="77">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="74" t="s">
+        <v>243</v>
+      </c>
+      <c r="B41" s="74" t="s">
+        <v>244</v>
+      </c>
+      <c r="C41">
+        <v>2003</v>
+      </c>
+      <c r="D41" s="89">
+        <v>88000</v>
+      </c>
+      <c r="E41" s="84">
+        <v>146972.5</v>
+      </c>
+      <c r="F41" s="82">
+        <v>85000</v>
+      </c>
+      <c r="G41" s="80">
+        <v>63000</v>
+      </c>
+      <c r="H41" s="78">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="85" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42">
+        <v>2004</v>
+      </c>
+      <c r="D42" s="90">
+        <v>96000</v>
+      </c>
+      <c r="E42" s="92">
+        <v>183500</v>
+      </c>
+      <c r="F42" s="94">
+        <v>110000</v>
+      </c>
+      <c r="G42" s="96">
+        <v>70000</v>
+      </c>
+      <c r="H42" s="98">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="B43" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="C43">
+        <v>2004</v>
+      </c>
+      <c r="D43" s="90">
+        <v>108000</v>
+      </c>
+      <c r="E43" s="92">
+        <v>200500</v>
+      </c>
+      <c r="F43" s="94">
+        <v>122000</v>
+      </c>
+      <c r="G43" s="96">
+        <v>72500</v>
+      </c>
+      <c r="H43" s="98">
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="85" t="s">
+        <v>229</v>
+      </c>
+      <c r="B44" s="85" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44">
+        <v>2004</v>
+      </c>
+      <c r="D44" s="90">
+        <v>110000</v>
+      </c>
+      <c r="E44" s="92">
+        <v>189950</v>
+      </c>
+      <c r="F44" s="94">
+        <v>115000</v>
+      </c>
+      <c r="G44" s="96">
+        <v>77000</v>
+      </c>
+      <c r="H44" s="98">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="85" t="s">
+        <v>231</v>
+      </c>
+      <c r="B45" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="C45">
+        <v>2004</v>
+      </c>
+      <c r="D45" s="90">
+        <v>126355</v>
+      </c>
+      <c r="E45" s="92">
+        <v>187000</v>
+      </c>
+      <c r="F45" s="94">
+        <v>118000</v>
+      </c>
+      <c r="G45" s="96">
+        <v>94000</v>
+      </c>
+      <c r="H45" s="98">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="85" t="s">
+        <v>233</v>
+      </c>
+      <c r="B46" s="85" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46">
+        <v>2004</v>
+      </c>
+      <c r="D46" s="90">
+        <v>128500</v>
+      </c>
+      <c r="E46" s="92">
+        <v>220000</v>
+      </c>
+      <c r="F46" s="94">
+        <v>127500</v>
+      </c>
+      <c r="G46" s="96">
+        <v>100000</v>
+      </c>
+      <c r="H46" s="98">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="85" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47">
+        <v>2004</v>
+      </c>
+      <c r="D47" s="90">
+        <v>164000</v>
+      </c>
+      <c r="E47" s="92">
+        <v>235000</v>
+      </c>
+      <c r="F47" s="94">
+        <v>165000</v>
+      </c>
+      <c r="G47" s="96">
+        <v>142000</v>
+      </c>
+      <c r="H47" s="98">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="85" t="s">
+        <v>237</v>
+      </c>
+      <c r="B48" s="85" t="s">
+        <v>238</v>
+      </c>
+      <c r="C48">
+        <v>2004</v>
+      </c>
+      <c r="D48" s="90">
+        <v>220000</v>
+      </c>
+      <c r="E48" s="92">
+        <v>430000</v>
+      </c>
+      <c r="F48" s="94">
+        <v>250000</v>
+      </c>
+      <c r="G48" s="96">
+        <v>225000</v>
+      </c>
+      <c r="H48" s="98">
+        <v>191000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="B49" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49">
+        <v>2004</v>
+      </c>
+      <c r="D49" s="90">
+        <v>185000</v>
+      </c>
+      <c r="E49" s="92">
+        <v>300000</v>
+      </c>
+      <c r="F49" s="94">
+        <v>192000</v>
+      </c>
+      <c r="G49" s="96">
+        <v>158500</v>
+      </c>
+      <c r="H49" s="98">
+        <v>134950</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="86" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" s="86" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50">
+        <v>2004</v>
+      </c>
+      <c r="D50" s="90">
+        <v>164950</v>
+      </c>
+      <c r="E50" s="92">
+        <v>247000</v>
+      </c>
+      <c r="F50" s="94">
+        <v>160000</v>
+      </c>
+      <c r="G50" s="96">
+        <v>137500</v>
+      </c>
+      <c r="H50" s="98">
+        <v>124950</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B51" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51">
+        <v>2004</v>
+      </c>
+      <c r="D51" s="91">
+        <v>115000</v>
+      </c>
+      <c r="E51" s="93">
+        <v>177000</v>
+      </c>
+      <c r="F51" s="95">
+        <v>111950</v>
+      </c>
+      <c r="G51" s="97">
+        <v>83000</v>
+      </c>
+      <c r="H51" s="99">
+        <v>110000</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Housing_data.xlsx
+++ b/Data/Housing_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_demo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D22FD37-98BA-432F-B84E-B64B7E077664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71393AC3-7500-4DF1-998D-E313D45DBCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{AB3678B5-2446-4328-882A-A72900DC8DCC}"/>
   </bookViews>
@@ -27687,7 +27687,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -27734,8 +27734,8 @@
       <c r="D2" s="39">
         <v>52000</v>
       </c>
-      <c r="E2" s="40">
-        <v>92500</v>
+      <c r="E2" s="98">
+        <v>88000</v>
       </c>
       <c r="F2" s="42">
         <v>54000</v>

--- a/Data/Housing_data.xlsx
+++ b/Data/Housing_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_demo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71393AC3-7500-4DF1-998D-E313D45DBCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987A52B6-0502-475C-B4C0-F27C667B4FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{AB3678B5-2446-4328-882A-A72900DC8DCC}"/>
   </bookViews>
@@ -1159,7 +1159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1334,15 +1334,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1407,7 +1398,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1468,12 +1459,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1481,159 +1467,69 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{9F0C2C05-6E57-4D0C-BC6E-731B1C24F8F5}"/>
@@ -27684,7 +27580,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A095E8-09B6-4732-8565-763B56E913EC}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -27695,7 +27591,7 @@
     <col min="2" max="2" width="24.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -27721,8 +27617,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="35" t="s">
         <v>225</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -27731,27 +27627,27 @@
       <c r="C2" s="28">
         <v>2000</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="36">
         <v>52000</v>
       </c>
-      <c r="E2" s="98">
-        <v>88000</v>
-      </c>
-      <c r="F2" s="42">
+      <c r="E2" s="60">
+        <v>-88000</v>
+      </c>
+      <c r="F2" s="38">
         <v>54000</v>
       </c>
-      <c r="G2" s="44">
+      <c r="G2" s="39">
         <v>36000</v>
       </c>
-      <c r="H2" s="49">
+      <c r="H2" s="41">
         <v>36000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>228</v>
       </c>
       <c r="C3">
@@ -27760,24 +27656,24 @@
       <c r="D3" s="33">
         <v>56500</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="37">
         <v>109000</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="38">
         <v>59500</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="39">
         <v>36050</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="41">
         <v>53975</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>230</v>
       </c>
       <c r="C4" s="28">
@@ -27786,24 +27682,24 @@
       <c r="D4" s="33">
         <v>56000</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="37">
         <v>95000</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="38">
         <v>54500</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="39">
         <v>39000</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="41">
         <v>52000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>232</v>
       </c>
       <c r="C5">
@@ -27812,24 +27708,24 @@
       <c r="D5" s="33">
         <v>61500</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="37">
         <v>97000</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="38">
         <v>55500</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="39">
         <v>42950</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="41">
         <v>43000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>234</v>
       </c>
       <c r="C6" s="28">
@@ -27838,24 +27734,24 @@
       <c r="D6" s="33">
         <v>67000</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="37">
         <v>124000</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="38">
         <v>65000</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="39">
         <v>50000</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="41">
         <v>47500</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>236</v>
       </c>
       <c r="C7">
@@ -27864,24 +27760,24 @@
       <c r="D7" s="33">
         <v>86500</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="37">
         <v>140000</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="38">
         <v>85325</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="39">
         <v>72000</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="41">
         <v>59950</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>238</v>
       </c>
       <c r="C8" s="28">
@@ -27890,1136 +27786,1172 @@
       <c r="D8" s="33">
         <v>138000</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="37">
         <v>295000</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="38">
         <v>165000</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="39">
         <v>135000</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="41">
         <v>120800</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="61">
         <v>2000</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="60">
         <v>112000</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="60">
         <v>193000</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="60">
         <v>117751.5</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="60">
         <v>89950</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="60">
         <v>72500</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="36" t="s">
+      <c r="I9" s="61"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="62">
         <v>2000</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="60">
         <v>85000</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="60">
         <v>137000</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="60">
         <v>83100</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="60">
         <v>68500</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="60">
         <v>58950</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="37" t="s">
+      <c r="I10" s="61"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="61">
         <v>2000</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="60">
         <v>56500</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="60">
         <v>89500</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="60">
         <v>54000</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="60">
         <v>40000</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="60">
         <v>49000</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="46" t="s">
+      <c r="I11" s="61"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="58" t="s">
         <v>225</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="61">
         <v>2001</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="60">
         <v>55000</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="60">
         <v>99950</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="60">
         <v>57500</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="60">
         <v>37500</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="60">
         <v>39000</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="46" t="s">
+      <c r="I12" s="61"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="40" t="s">
         <v>228</v>
       </c>
       <c r="C13">
         <v>2001</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="42">
         <v>60000</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="43">
         <v>119995</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="44">
         <v>65000</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="45">
         <v>38500</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H13" s="47">
         <v>60000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="46" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="40" t="s">
         <v>230</v>
       </c>
       <c r="C14">
         <v>2001</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="42">
         <v>59950</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="43">
         <v>105000</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="44">
         <v>58950</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="45">
         <v>40000</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="47">
         <v>59950</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="46" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="40" t="s">
         <v>232</v>
       </c>
       <c r="C15">
         <v>2001</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="42">
         <v>70000</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="43">
         <v>112500</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="44">
         <v>62000</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="45">
         <v>48000</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="47">
         <v>52000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="46" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="40" t="s">
         <v>234</v>
       </c>
       <c r="C16">
         <v>2001</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="42">
         <v>76000</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="43">
         <v>138000</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="44">
         <v>73000</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="45">
         <v>56000</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="47">
         <v>57000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="46" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="40" t="s">
         <v>236</v>
       </c>
       <c r="C17">
         <v>2001</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="42">
         <v>99995</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="43">
         <v>155000</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="44">
         <v>99995</v>
       </c>
-      <c r="G17" s="57">
+      <c r="G17" s="45">
         <v>82995</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="47">
         <v>67000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="46" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="61">
         <v>2001</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="60">
         <v>155000</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="60">
         <v>310000</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="60">
         <v>182000</v>
       </c>
-      <c r="G18" s="57">
+      <c r="G18" s="60">
         <v>150000</v>
       </c>
-      <c r="H18" s="62">
+      <c r="H18" s="60">
         <v>136495</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="46" t="s">
+      <c r="I18" s="61"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="61">
         <v>2001</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="60">
         <v>126000</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="60">
         <v>216500</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="60">
         <v>130000</v>
       </c>
-      <c r="G19" s="57">
+      <c r="G19" s="60">
         <v>102500</v>
       </c>
-      <c r="H19" s="62">
+      <c r="H19" s="60">
         <v>84500</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="47" t="s">
+      <c r="I19" s="61"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="61">
         <v>2001</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="60">
         <v>96500</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="60">
         <v>153000</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="60">
         <v>94000</v>
       </c>
-      <c r="G20" s="57">
+      <c r="G20" s="60">
         <v>78000</v>
       </c>
-      <c r="H20" s="62">
+      <c r="H20" s="60">
         <v>69500</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="48" t="s">
+      <c r="I20" s="61"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="61">
         <v>2001</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="60">
         <v>60000</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="60">
         <v>97950</v>
       </c>
-      <c r="F21" s="56">
+      <c r="F21" s="60">
         <v>58000</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="60">
         <v>43500</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="60">
         <v>57000</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="59" t="s">
+      <c r="I21" s="61"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="58" t="s">
         <v>225</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="61">
         <v>2002</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="60">
         <v>60000</v>
       </c>
-      <c r="E22" s="66">
+      <c r="E22" s="60">
         <v>121950</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="60">
         <v>66000</v>
       </c>
-      <c r="G22" s="70">
+      <c r="G22" s="60">
         <v>41950</v>
       </c>
-      <c r="H22" s="75">
+      <c r="H22" s="60">
         <v>47000</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="59" t="s">
+      <c r="I22" s="61"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="61">
         <v>2002</v>
       </c>
-      <c r="D23" s="64">
+      <c r="D23" s="60">
         <v>70000</v>
       </c>
-      <c r="E23" s="66">
+      <c r="E23" s="60">
         <v>140000</v>
       </c>
-      <c r="F23" s="68">
+      <c r="F23" s="60">
         <v>76950</v>
       </c>
-      <c r="G23" s="70">
+      <c r="G23" s="60">
         <v>43000</v>
       </c>
-      <c r="H23" s="75">
+      <c r="H23" s="60">
         <v>78950</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="59" t="s">
+      <c r="I23" s="61"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="46" t="s">
         <v>230</v>
       </c>
       <c r="C24">
         <v>2002</v>
       </c>
-      <c r="D24" s="64">
+      <c r="D24" s="48">
         <v>70000</v>
       </c>
-      <c r="E24" s="66">
+      <c r="E24" s="49">
         <v>129000</v>
       </c>
-      <c r="F24" s="68">
+      <c r="F24" s="50">
         <v>69950</v>
       </c>
-      <c r="G24" s="70">
+      <c r="G24" s="51">
         <v>46000</v>
       </c>
-      <c r="H24" s="75">
+      <c r="H24" s="53">
         <v>75500</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="59" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="46" t="s">
         <v>232</v>
       </c>
       <c r="C25">
         <v>2002</v>
       </c>
-      <c r="D25" s="64">
+      <c r="D25" s="48">
         <v>85000</v>
       </c>
-      <c r="E25" s="66">
+      <c r="E25" s="49">
         <v>135000</v>
       </c>
-      <c r="F25" s="68">
+      <c r="F25" s="50">
         <v>77000</v>
       </c>
-      <c r="G25" s="70">
+      <c r="G25" s="51">
         <v>59995</v>
       </c>
-      <c r="H25" s="75">
+      <c r="H25" s="53">
         <v>66000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="59" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="46" t="s">
         <v>234</v>
       </c>
       <c r="C26">
         <v>2002</v>
       </c>
-      <c r="D26" s="64">
+      <c r="D26" s="48">
         <v>89950</v>
       </c>
-      <c r="E26" s="66">
+      <c r="E26" s="49">
         <v>162500</v>
       </c>
-      <c r="F26" s="68">
+      <c r="F26" s="50">
         <v>86500</v>
       </c>
-      <c r="G26" s="70">
+      <c r="G26" s="51">
         <v>67500</v>
       </c>
-      <c r="H26" s="75">
+      <c r="H26" s="53">
         <v>69500</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="59" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="46" t="s">
         <v>236</v>
       </c>
       <c r="C27">
         <v>2002</v>
       </c>
-      <c r="D27" s="64">
+      <c r="D27" s="48">
         <v>125000</v>
       </c>
-      <c r="E27" s="66">
+      <c r="E27" s="49">
         <v>185000</v>
       </c>
-      <c r="F27" s="68">
+      <c r="F27" s="50">
         <v>125000</v>
       </c>
-      <c r="G27" s="70">
+      <c r="G27" s="51">
         <v>104000</v>
       </c>
-      <c r="H27" s="75">
+      <c r="H27" s="53">
         <v>85950</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="59" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="46" t="s">
         <v>238</v>
       </c>
       <c r="C28">
         <v>2002</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="48">
         <v>180457</v>
       </c>
-      <c r="E28" s="66">
+      <c r="E28" s="49">
         <v>352000</v>
       </c>
-      <c r="F28" s="68">
+      <c r="F28" s="50">
         <v>217000</v>
       </c>
-      <c r="G28" s="70">
+      <c r="G28" s="51">
         <v>180000</v>
       </c>
-      <c r="H28" s="75">
+      <c r="H28" s="53">
         <v>160000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="59" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="61">
         <v>2002</v>
       </c>
-      <c r="D29" s="64">
+      <c r="D29" s="60">
         <v>148000</v>
       </c>
-      <c r="E29" s="66">
+      <c r="E29" s="60">
         <v>248000</v>
       </c>
-      <c r="F29" s="68">
+      <c r="F29" s="60">
         <v>153500</v>
       </c>
-      <c r="G29" s="70">
+      <c r="G29" s="60">
         <v>125000</v>
       </c>
-      <c r="H29" s="75">
+      <c r="H29" s="60">
         <v>104000</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="60" t="s">
+      <c r="I29" s="61"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="61">
         <v>2002</v>
       </c>
-      <c r="D30" s="64">
+      <c r="D30" s="60">
         <v>123000</v>
       </c>
-      <c r="E30" s="66">
+      <c r="E30" s="60">
         <v>185000</v>
       </c>
-      <c r="F30" s="68">
+      <c r="F30" s="60">
         <v>119000</v>
       </c>
-      <c r="G30" s="70">
+      <c r="G30" s="60">
         <v>97000</v>
       </c>
-      <c r="H30" s="75">
+      <c r="H30" s="60">
         <v>88000</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="61" t="s">
+      <c r="I30" s="61"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="61">
         <v>2002</v>
       </c>
-      <c r="D31" s="65">
+      <c r="D31" s="60">
         <v>71000</v>
       </c>
-      <c r="E31" s="67">
+      <c r="E31" s="60">
         <v>119950</v>
       </c>
-      <c r="F31" s="69">
+      <c r="F31" s="60">
         <v>67307.5</v>
       </c>
-      <c r="G31" s="71">
+      <c r="G31" s="60">
         <v>49950</v>
       </c>
-      <c r="H31" s="76">
+      <c r="H31" s="60">
         <v>69950</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="72" t="s">
+      <c r="I31" s="61"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="58" t="s">
         <v>225</v>
       </c>
       <c r="B32" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="61">
         <v>2003</v>
       </c>
-      <c r="D32" s="88">
+      <c r="D32" s="60">
         <v>77950</v>
       </c>
-      <c r="E32" s="83">
+      <c r="E32" s="60">
         <v>155000</v>
       </c>
-      <c r="F32" s="81">
+      <c r="F32" s="60">
         <v>85000</v>
       </c>
-      <c r="G32" s="79">
+      <c r="G32" s="60">
         <v>53000</v>
       </c>
-      <c r="H32" s="77">
+      <c r="H32" s="60">
         <v>63500</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="72" t="s">
+      <c r="I32" s="61"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="61">
         <v>2003</v>
       </c>
-      <c r="D33" s="88">
+      <c r="D33" s="60">
         <v>85000</v>
       </c>
-      <c r="E33" s="83">
+      <c r="E33" s="60">
         <v>170950</v>
       </c>
-      <c r="F33" s="81">
+      <c r="F33" s="60">
         <v>94950</v>
       </c>
-      <c r="G33" s="79">
+      <c r="G33" s="60">
         <v>55000</v>
       </c>
-      <c r="H33" s="77">
+      <c r="H33" s="60">
         <v>93100</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="72" t="s">
+      <c r="I33" s="61"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="61">
         <v>2003</v>
       </c>
-      <c r="D34" s="88">
+      <c r="D34" s="60">
         <v>87950</v>
       </c>
-      <c r="E34" s="83">
+      <c r="E34" s="60">
         <v>161726</v>
       </c>
-      <c r="F34" s="81">
+      <c r="F34" s="60">
         <v>89500</v>
       </c>
-      <c r="G34" s="79">
+      <c r="G34" s="60">
         <v>59950</v>
       </c>
-      <c r="H34" s="77">
+      <c r="H34" s="60">
         <v>94000</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="72" t="s">
+      <c r="I34" s="61"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="52" t="s">
         <v>232</v>
       </c>
       <c r="C35">
         <v>2003</v>
       </c>
-      <c r="D35" s="88">
+      <c r="D35" s="59">
         <v>107000</v>
       </c>
-      <c r="E35" s="83">
+      <c r="E35" s="57">
         <v>167000</v>
       </c>
-      <c r="F35" s="81">
+      <c r="F35" s="56">
         <v>97000</v>
       </c>
-      <c r="G35" s="79">
+      <c r="G35" s="55">
         <v>78000</v>
       </c>
-      <c r="H35" s="77">
+      <c r="H35" s="54">
         <v>87000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="72" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="52" t="s">
         <v>234</v>
       </c>
       <c r="C36">
         <v>2003</v>
       </c>
-      <c r="D36" s="88">
+      <c r="D36" s="59">
         <v>110000</v>
       </c>
-      <c r="E36" s="83">
+      <c r="E36" s="57">
         <v>192450</v>
       </c>
-      <c r="F36" s="81">
+      <c r="F36" s="56">
         <v>108000</v>
       </c>
-      <c r="G36" s="79">
+      <c r="G36" s="55">
         <v>83500</v>
       </c>
-      <c r="H36" s="77">
+      <c r="H36" s="54">
         <v>88500</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="72" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="52" t="s">
         <v>236</v>
       </c>
       <c r="C37">
         <v>2003</v>
       </c>
-      <c r="D37" s="88">
+      <c r="D37" s="59">
         <v>145500</v>
       </c>
-      <c r="E37" s="83">
+      <c r="E37" s="57">
         <v>215000</v>
       </c>
-      <c r="F37" s="81">
+      <c r="F37" s="56">
         <v>148000</v>
       </c>
-      <c r="G37" s="79">
+      <c r="G37" s="55">
         <v>126000</v>
       </c>
-      <c r="H37" s="77">
+      <c r="H37" s="54">
         <v>105000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="72" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="B38" s="72" t="s">
+      <c r="B38" s="52" t="s">
         <v>238</v>
       </c>
       <c r="C38">
         <v>2003</v>
       </c>
-      <c r="D38" s="88">
+      <c r="D38" s="59">
         <v>200000</v>
       </c>
-      <c r="E38" s="83">
+      <c r="E38" s="57">
         <v>390000</v>
       </c>
-      <c r="F38" s="81">
+      <c r="F38" s="56">
         <v>245000</v>
       </c>
-      <c r="G38" s="79">
+      <c r="G38" s="55">
         <v>204525</v>
       </c>
-      <c r="H38" s="77">
+      <c r="H38" s="54">
         <v>173000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="72" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="61">
         <v>2003</v>
       </c>
-      <c r="D39" s="88">
+      <c r="D39" s="60">
         <v>169950</v>
       </c>
-      <c r="E39" s="83">
+      <c r="E39" s="60">
         <v>279950</v>
       </c>
-      <c r="F39" s="81">
+      <c r="F39" s="60">
         <v>177500</v>
       </c>
-      <c r="G39" s="79">
+      <c r="G39" s="60">
         <v>144000</v>
       </c>
-      <c r="H39" s="77">
+      <c r="H39" s="60">
         <v>120000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="73" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="B40" s="73" t="s">
+      <c r="B40" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="61">
         <v>2003</v>
       </c>
-      <c r="D40" s="88">
+      <c r="D40" s="60">
         <v>145000</v>
       </c>
-      <c r="E40" s="83">
+      <c r="E40" s="60">
         <v>225000</v>
       </c>
-      <c r="F40" s="81">
+      <c r="F40" s="60">
         <v>141000</v>
       </c>
-      <c r="G40" s="79">
+      <c r="G40" s="60">
         <v>120000</v>
       </c>
-      <c r="H40" s="77">
+      <c r="H40" s="60">
         <v>108000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="74" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="61">
         <v>2003</v>
       </c>
-      <c r="D41" s="89">
+      <c r="D41" s="60">
         <v>88000</v>
       </c>
-      <c r="E41" s="84">
+      <c r="E41" s="60">
         <v>146972.5</v>
       </c>
-      <c r="F41" s="82">
+      <c r="F41" s="60">
         <v>85000</v>
       </c>
-      <c r="G41" s="80">
+      <c r="G41" s="60">
         <v>63000</v>
       </c>
-      <c r="H41" s="78">
+      <c r="H41" s="60">
         <v>85000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="85" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="58" t="s">
         <v>225</v>
       </c>
       <c r="B42" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="61">
         <v>2004</v>
       </c>
-      <c r="D42" s="90">
+      <c r="D42" s="60">
         <v>96000</v>
       </c>
-      <c r="E42" s="92">
+      <c r="E42" s="60">
         <v>183500</v>
       </c>
-      <c r="F42" s="94">
+      <c r="F42" s="60">
         <v>110000</v>
       </c>
-      <c r="G42" s="96">
+      <c r="G42" s="60">
         <v>70000</v>
       </c>
-      <c r="H42" s="98">
+      <c r="H42" s="60">
         <v>82000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="85" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="B43" s="85" t="s">
+      <c r="B43" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="61">
         <v>2004</v>
       </c>
-      <c r="D43" s="90">
+      <c r="D43" s="60">
         <v>108000</v>
       </c>
-      <c r="E43" s="92">
+      <c r="E43" s="60">
         <v>200500</v>
       </c>
-      <c r="F43" s="94">
+      <c r="F43" s="60">
         <v>122000</v>
       </c>
-      <c r="G43" s="96">
+      <c r="G43" s="60">
         <v>72500</v>
       </c>
-      <c r="H43" s="98">
+      <c r="H43" s="60">
         <v>114000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="85" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="B44" s="85" t="s">
+      <c r="B44" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="61">
         <v>2004</v>
       </c>
-      <c r="D44" s="90">
+      <c r="D44" s="60">
         <v>110000</v>
       </c>
-      <c r="E44" s="92">
+      <c r="E44" s="60">
         <v>189950</v>
       </c>
-      <c r="F44" s="94">
+      <c r="F44" s="60">
         <v>115000</v>
       </c>
-      <c r="G44" s="96">
+      <c r="G44" s="60">
         <v>77000</v>
       </c>
-      <c r="H44" s="98">
+      <c r="H44" s="60">
         <v>115000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="85" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="B45" s="85" t="s">
+      <c r="B45" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="61">
         <v>2004</v>
       </c>
-      <c r="D45" s="90">
+      <c r="D45" s="60">
         <v>126355</v>
       </c>
-      <c r="E45" s="92">
+      <c r="E45" s="60">
         <v>187000</v>
       </c>
-      <c r="F45" s="94">
+      <c r="F45" s="60">
         <v>118000</v>
       </c>
-      <c r="G45" s="96">
+      <c r="G45" s="60">
         <v>94000</v>
       </c>
-      <c r="H45" s="98">
+      <c r="H45" s="60">
         <v>102000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="85" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="B46" s="85" t="s">
+      <c r="B46" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="61">
         <v>2004</v>
       </c>
-      <c r="D46" s="90">
+      <c r="D46" s="60">
         <v>128500</v>
       </c>
-      <c r="E46" s="92">
+      <c r="E46" s="60">
         <v>220000</v>
       </c>
-      <c r="F46" s="94">
+      <c r="F46" s="60">
         <v>127500</v>
       </c>
-      <c r="G46" s="96">
+      <c r="G46" s="60">
         <v>100000</v>
       </c>
-      <c r="H46" s="98">
+      <c r="H46" s="60">
         <v>105000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="85" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="B47" s="85" t="s">
+      <c r="B47" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="61">
         <v>2004</v>
       </c>
-      <c r="D47" s="90">
+      <c r="D47" s="60">
         <v>164000</v>
       </c>
-      <c r="E47" s="92">
+      <c r="E47" s="60">
         <v>235000</v>
       </c>
-      <c r="F47" s="94">
+      <c r="F47" s="60">
         <v>165000</v>
       </c>
-      <c r="G47" s="96">
+      <c r="G47" s="60">
         <v>142000</v>
       </c>
-      <c r="H47" s="98">
+      <c r="H47" s="60">
         <v>120000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="85" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="61">
         <v>2004</v>
       </c>
-      <c r="D48" s="90">
+      <c r="D48" s="60">
         <v>220000</v>
       </c>
-      <c r="E48" s="92">
+      <c r="E48" s="60">
         <v>430000</v>
       </c>
-      <c r="F48" s="94">
+      <c r="F48" s="60">
         <v>250000</v>
       </c>
-      <c r="G48" s="96">
+      <c r="G48" s="60">
         <v>225000</v>
       </c>
-      <c r="H48" s="98">
+      <c r="H48" s="60">
         <v>191000</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="B49" s="85" t="s">
+      <c r="B49" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="61">
         <v>2004</v>
       </c>
-      <c r="D49" s="90">
+      <c r="D49" s="60">
         <v>185000</v>
       </c>
-      <c r="E49" s="92">
+      <c r="E49" s="60">
         <v>300000</v>
       </c>
-      <c r="F49" s="94">
+      <c r="F49" s="60">
         <v>192000</v>
       </c>
-      <c r="G49" s="96">
+      <c r="G49" s="60">
         <v>158500</v>
       </c>
-      <c r="H49" s="98">
+      <c r="H49" s="60">
         <v>134950</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="86" t="s">
+      <c r="A50" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="B50" s="86" t="s">
+      <c r="B50" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="61">
         <v>2004</v>
       </c>
-      <c r="D50" s="90">
+      <c r="D50" s="60">
         <v>164950</v>
       </c>
-      <c r="E50" s="92">
+      <c r="E50" s="60">
         <v>247000</v>
       </c>
-      <c r="F50" s="94">
+      <c r="F50" s="60">
         <v>160000</v>
       </c>
-      <c r="G50" s="96">
+      <c r="G50" s="60">
         <v>137500</v>
       </c>
-      <c r="H50" s="98">
+      <c r="H50" s="60">
         <v>124950</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="87" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="B51" s="87" t="s">
+      <c r="B51" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="61">
         <v>2004</v>
       </c>
-      <c r="D51" s="91">
+      <c r="D51" s="60">
         <v>115000</v>
       </c>
-      <c r="E51" s="93">
+      <c r="E51" s="60">
         <v>177000</v>
       </c>
-      <c r="F51" s="95">
+      <c r="F51" s="60">
         <v>111950</v>
       </c>
-      <c r="G51" s="97">
+      <c r="G51" s="60">
         <v>83000</v>
       </c>
-      <c r="H51" s="99">
+      <c r="H51" s="60">
         <v>110000</v>
       </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="61"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Housing_data.xlsx
+++ b/Data/Housing_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_demo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987A52B6-0502-475C-B4C0-F27C667B4FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7BAA17-2056-473B-9016-E8059ACCD00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{AB3678B5-2446-4328-882A-A72900DC8DCC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{AB3678B5-2446-4328-882A-A72900DC8DCC}"/>
   </bookViews>
   <sheets>
     <sheet name="introduction" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="245">
   <si>
     <t>Code</t>
   </si>
@@ -972,7 +972,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1155,6 +1155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,7 +1404,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1530,6 +1536,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{9F0C2C05-6E57-4D0C-BC6E-731B1C24F8F5}"/>
@@ -14798,8 +14815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85B4453-11F1-496E-AA5E-A13E57016F5E}">
   <dimension ref="A1:H491"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -14833,30 +14850,30 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="63">
         <v>2000</v>
       </c>
-      <c r="D2" s="23">
-        <v>47000</v>
-      </c>
-      <c r="E2" s="24">
+      <c r="D2" s="64">
+        <v>-47000</v>
+      </c>
+      <c r="E2" s="65">
         <v>87995</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="65">
         <v>52500</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="65">
         <v>25000</v>
       </c>
-      <c r="H2" s="25">
-        <v>31475</v>
+      <c r="H2" s="66">
+        <v>-31475</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -15064,7 +15081,7 @@
         <v>38000</v>
       </c>
       <c r="H10" s="19">
-        <v>36375</v>
+        <v>-36375</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -16727,8 +16744,8 @@
       <c r="G74" s="18">
         <v>23000</v>
       </c>
-      <c r="H74" s="19" t="s">
-        <v>223</v>
+      <c r="H74" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -27582,8 +27599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A095E8-09B6-4732-8565-763B56E913EC}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
